--- a/raw_data/20200818_saline/20200818_Sensor1_Test_11.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_11.xlsx
@@ -1,2926 +1,3342 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1185AB0A-24B2-4F1C-93B5-134F8D80D26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>9186.882814</v>
+        <v>9186.8828140000005</v>
       </c>
       <c r="B2" s="1">
-        <v>2.551912</v>
+        <v>2.5519120000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>895.977000</v>
+        <v>895.97699999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.756000</v>
+        <v>-200.756</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>9197.244125</v>
+        <v>9197.2441249999993</v>
       </c>
       <c r="G2" s="1">
-        <v>2.554790</v>
+        <v>2.5547900000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>915.438000</v>
+        <v>915.43799999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.875000</v>
+        <v>-168.875</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>9207.381023</v>
+        <v>9207.3810229999999</v>
       </c>
       <c r="L2" s="1">
-        <v>2.557606</v>
+        <v>2.5576059999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>939.321000</v>
+        <v>939.32100000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.852000</v>
+        <v>-119.852</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>9217.905015</v>
+        <v>9217.9050150000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.560529</v>
+        <v>2.5605289999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>946.015000</v>
+        <v>946.01499999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.414000</v>
+        <v>-103.414</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>9228.828867</v>
+        <v>9228.8288670000002</v>
       </c>
       <c r="V2" s="1">
         <v>2.563564</v>
       </c>
       <c r="W2" s="1">
-        <v>952.641000</v>
+        <v>952.64099999999996</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.385900</v>
+        <v>-88.385900000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>9239.574725</v>
+        <v>9239.5747250000004</v>
       </c>
       <c r="AA2" s="1">
-        <v>2.566549</v>
+        <v>2.5665490000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.665000</v>
+        <v>959.66499999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.765100</v>
+        <v>-76.765100000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>9249.830007</v>
+        <v>9249.8300070000005</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.569397</v>
+        <v>2.5693969999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.378000</v>
+        <v>964.37800000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.550800</v>
+        <v>-74.550799999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>9260.914073</v>
+        <v>9260.9140729999999</v>
       </c>
       <c r="AK2" s="1">
         <v>2.572476</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.435000</v>
+        <v>971.43499999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.483300</v>
+        <v>-79.4833</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>9271.473899</v>
+        <v>9271.4738990000005</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.575409</v>
+        <v>2.5754090000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.647000</v>
+        <v>979.64700000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.950700</v>
+        <v>-90.950699999999998</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>9282.450892</v>
+        <v>9282.4508920000007</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.578459</v>
+        <v>2.5784590000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>989.486000</v>
+        <v>989.48599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.584000</v>
+        <v>-108.584</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>9293.846943</v>
+        <v>9293.8469430000005</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2.581624</v>
+        <v>2.5816240000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.643000</v>
+        <v>997.64300000000003</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.278000</v>
+        <v>-124.27800000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>9304.504507</v>
+        <v>9304.5045069999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>2.584585</v>
+        <v>2.5845850000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.039000</v>
+        <v>-196.03899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>9314.954690</v>
+        <v>9314.9546900000005</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2.587487</v>
+        <v>2.5874869999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1101.750000</v>
+        <v>1101.75</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.106000</v>
+        <v>-313.10599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>9325.718371</v>
+        <v>9325.7183710000008</v>
       </c>
       <c r="BO2" s="1">
-        <v>2.590477</v>
+        <v>2.5904769999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1208.700000</v>
+        <v>1208.7</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-498.774000</v>
+        <v>-498.774</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>9336.080294</v>
+        <v>9336.0802939999994</v>
       </c>
       <c r="BT2" s="1">
         <v>2.593356</v>
       </c>
       <c r="BU2" s="1">
-        <v>1329.510000</v>
+        <v>1329.51</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.878000</v>
+        <v>-703.87800000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>9346.787928</v>
+        <v>9346.7879279999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>2.596330</v>
+        <v>2.59633</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1465.790000</v>
+        <v>1465.79</v>
       </c>
       <c r="CA2" s="1">
-        <v>-922.451000</v>
+        <v>-922.45100000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>9357.779802</v>
+        <v>9357.7798019999991</v>
       </c>
       <c r="CD2" s="1">
         <v>2.599383</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.200000</v>
+        <v>1826.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1442.180000</v>
+        <v>-1442.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>9187.231421</v>
+        <v>9187.2314210000004</v>
       </c>
       <c r="B3" s="1">
         <v>2.552009</v>
       </c>
       <c r="C3" s="1">
-        <v>896.041000</v>
+        <v>896.04100000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.718000</v>
+        <v>-200.71799999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>9197.614141</v>
       </c>
       <c r="G3" s="1">
-        <v>2.554893</v>
+        <v>2.5548929999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>915.855000</v>
+        <v>915.85500000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.979000</v>
+        <v>-168.97900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>9207.768767</v>
+        <v>9207.7687669999996</v>
       </c>
       <c r="L3" s="1">
-        <v>2.557714</v>
+        <v>2.5577139999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>939.522000</v>
+        <v>939.52200000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.781000</v>
+        <v>-119.78100000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>9218.281442</v>
+        <v>9218.2814419999995</v>
       </c>
       <c r="Q3" s="1">
-        <v>2.560634</v>
+        <v>2.5606339999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.048000</v>
+        <v>946.048</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.451000</v>
+        <v>-103.45099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>9229.537186</v>
+        <v>9229.5371859999996</v>
       </c>
       <c r="V3" s="1">
-        <v>2.563760</v>
+        <v>2.5637599999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>952.601000</v>
+        <v>952.601</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.340000</v>
+        <v>-88.34</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>9239.683329</v>
+        <v>9239.6833289999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.566579</v>
+        <v>2.5665789999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.790000</v>
+        <v>959.79</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.790300</v>
+        <v>-76.790300000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>9250.177175</v>
+        <v>9250.1771750000007</v>
       </c>
       <c r="AF3" s="1">
-        <v>2.569494</v>
+        <v>2.5694940000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.432000</v>
+        <v>964.43200000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.593400</v>
+        <v>-74.593400000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>9261.279129</v>
+        <v>9261.2791290000005</v>
       </c>
       <c r="AK3" s="1">
         <v>2.572578</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.444000</v>
+        <v>971.44399999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.511500</v>
+        <v>-79.511499999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>9271.840939</v>
+        <v>9271.8409389999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.575511</v>
+        <v>2.5755110000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.618000</v>
+        <v>979.61800000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.942400</v>
+        <v>-90.942400000000006</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>9283.138316</v>
+        <v>9283.1383160000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>2.578650</v>
+        <v>2.5786500000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>989.472000</v>
+        <v>989.47199999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.605000</v>
+        <v>-108.605</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>9293.965486</v>
+        <v>9293.9654859999991</v>
       </c>
       <c r="AZ3" s="1">
-        <v>2.581657</v>
+        <v>2.5816569999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.659000</v>
+        <v>997.65899999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.264000</v>
+        <v>-124.264</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>9304.614097</v>
+        <v>9304.6140969999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>2.584615</v>
+        <v>2.5846149999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.980000</v>
+        <v>1035.98</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.042000</v>
+        <v>-196.042</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>9315.329202</v>
+        <v>9315.3292020000008</v>
       </c>
       <c r="BJ3" s="1">
-        <v>2.587591</v>
+        <v>2.5875910000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1101.750000</v>
+        <v>1101.75</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.138000</v>
+        <v>-313.13799999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>9326.153581</v>
+        <v>9326.1535810000005</v>
       </c>
       <c r="BO3" s="1">
         <v>2.590598</v>
       </c>
       <c r="BP3" s="1">
-        <v>1208.740000</v>
+        <v>1208.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-498.838000</v>
+        <v>-498.83800000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>9336.540118</v>
+        <v>9336.5401180000008</v>
       </c>
       <c r="BT3" s="1">
         <v>2.593483</v>
       </c>
       <c r="BU3" s="1">
-        <v>1329.560000</v>
+        <v>1329.56</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.866000</v>
+        <v>-703.86599999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>9347.259160</v>
+        <v>9347.2591599999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>2.596461</v>
+        <v>2.5964610000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1465.870000</v>
+        <v>1465.87</v>
       </c>
       <c r="CA3" s="1">
-        <v>-922.404000</v>
+        <v>-922.404</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>9358.363560</v>
+        <v>9358.3635599999998</v>
       </c>
       <c r="CD3" s="1">
         <v>2.599545</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.230000</v>
+        <v>1826.23</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1443.600000</v>
+        <v>-1443.6</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>9187.574655</v>
+        <v>9187.5746550000003</v>
       </c>
       <c r="B4" s="1">
-        <v>2.552104</v>
+        <v>2.5521039999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>896.129000</v>
+        <v>896.12900000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.931000</v>
+        <v>-200.93100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>9197.956878</v>
+        <v>9197.9568780000009</v>
       </c>
       <c r="G4" s="1">
-        <v>2.554988</v>
+        <v>2.5549879999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>915.537000</v>
+        <v>915.53700000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.011000</v>
+        <v>-169.011</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>9208.458176</v>
+        <v>9208.4581760000001</v>
       </c>
       <c r="L4" s="1">
-        <v>2.557905</v>
+        <v>2.5579049999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.325000</v>
+        <v>939.32500000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.798000</v>
+        <v>-119.798</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>9218.975346</v>
+        <v>9218.9753459999993</v>
       </c>
       <c r="Q4" s="1">
         <v>2.560826</v>
       </c>
       <c r="R4" s="1">
-        <v>946.032000</v>
+        <v>946.03200000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.455000</v>
+        <v>-103.455</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>9229.882370</v>
+        <v>9229.8823699999994</v>
       </c>
       <c r="V4" s="1">
-        <v>2.563856</v>
+        <v>2.5638559999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>952.630000</v>
+        <v>952.63</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.437200</v>
+        <v>-88.437200000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>9240.029029</v>
+        <v>9240.0290289999994</v>
       </c>
       <c r="AA4" s="1">
         <v>2.566675</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.694000</v>
+        <v>959.69399999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.767700</v>
+        <v>-76.767700000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>9250.519911</v>
+        <v>9250.5199109999994</v>
       </c>
       <c r="AF4" s="1">
-        <v>2.569589</v>
+        <v>2.5695890000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.397000</v>
+        <v>964.39700000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.608100</v>
+        <v>-74.608099999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>9261.923468</v>
+        <v>9261.9234680000009</v>
       </c>
       <c r="AK4" s="1">
-        <v>2.572757</v>
+        <v>2.5727570000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.518000</v>
+        <v>971.51800000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.603900</v>
+        <v>-79.603899999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>9272.523930</v>
+        <v>9272.5239299999994</v>
       </c>
       <c r="AP4" s="1">
         <v>2.575701</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.607000</v>
+        <v>979.60699999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.930800</v>
+        <v>-90.930800000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>9283.555451</v>
+        <v>9283.5554510000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>2.578765</v>
+        <v>2.5787650000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>989.481000</v>
+        <v>989.48099999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.586000</v>
+        <v>-108.586</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>9294.326078</v>
+        <v>9294.3260780000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>2.581757</v>
+        <v>2.5817570000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.650000</v>
+        <v>997.65</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.277000</v>
+        <v>-124.277</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>9304.965759</v>
+        <v>9304.9657590000006</v>
       </c>
       <c r="BE4" s="1">
-        <v>2.584713</v>
+        <v>2.5847129999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.980000</v>
+        <v>1035.98</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.040000</v>
+        <v>-196.04</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>9315.705139</v>
+        <v>9315.7051389999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>2.587696</v>
+        <v>2.5876960000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1101.780000</v>
+        <v>1101.78</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.125000</v>
+        <v>-313.125</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>9326.551650</v>
+        <v>9326.5516499999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>2.590709</v>
+        <v>2.5907089999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-498.870000</v>
+        <v>-498.87</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>9336.975077</v>
+        <v>9336.9750769999991</v>
       </c>
       <c r="BT4" s="1">
         <v>2.593604</v>
       </c>
       <c r="BU4" s="1">
-        <v>1329.530000</v>
+        <v>1329.53</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.936000</v>
+        <v>-703.93600000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>9347.693660</v>
+        <v>9347.6936600000008</v>
       </c>
       <c r="BY4" s="1">
-        <v>2.596582</v>
+        <v>2.5965820000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1465.800000</v>
+        <v>1465.8</v>
       </c>
       <c r="CA4" s="1">
-        <v>-922.465000</v>
+        <v>-922.46500000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>9358.895768</v>
+        <v>9358.8957680000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>2.599693</v>
+        <v>2.5996929999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1826.540000</v>
+        <v>1826.54</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1442.430000</v>
+        <v>-1442.43</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>9188.255131</v>
+        <v>9188.2551309999999</v>
       </c>
       <c r="B5" s="1">
-        <v>2.552293</v>
+        <v>2.5522930000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>896.220000</v>
+        <v>896.22</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.870000</v>
+        <v>-200.87</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>9198.647308</v>
+        <v>9198.6473079999996</v>
       </c>
       <c r="G5" s="1">
-        <v>2.555180</v>
+        <v>2.55518</v>
       </c>
       <c r="H5" s="1">
-        <v>915.340000</v>
+        <v>915.34</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.820000</v>
+        <v>-168.82</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>9208.802431</v>
+        <v>9208.8024310000001</v>
       </c>
       <c r="L5" s="1">
         <v>2.558001</v>
       </c>
       <c r="M5" s="1">
-        <v>939.233000</v>
+        <v>939.23299999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.799000</v>
+        <v>-119.79900000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>9219.327041</v>
+        <v>9219.3270410000005</v>
       </c>
       <c r="Q5" s="1">
         <v>2.560924</v>
       </c>
       <c r="R5" s="1">
-        <v>946.050000</v>
+        <v>946.05</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.483000</v>
+        <v>-103.483</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>9230.225603</v>
+        <v>9230.2256030000008</v>
       </c>
       <c r="V5" s="1">
         <v>2.563952</v>
       </c>
       <c r="W5" s="1">
-        <v>952.652000</v>
+        <v>952.65200000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.416600</v>
+        <v>-88.416600000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>9240.687220</v>
+        <v>9240.6872199999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.566858</v>
+        <v>2.5668579999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.652000</v>
+        <v>959.65200000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.715000</v>
+        <v>-76.715000000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>9251.169174</v>
+        <v>9251.1691740000006</v>
       </c>
       <c r="AF5" s="1">
         <v>2.569769</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.431000</v>
+        <v>964.43100000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.606100</v>
+        <v>-74.606099999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9262.321721</v>
+        <v>9262.3217210000003</v>
       </c>
       <c r="AK5" s="1">
         <v>2.572867</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.485000</v>
+        <v>971.48500000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.581400</v>
+        <v>-79.581400000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>9272.959915</v>
+        <v>9272.9599149999995</v>
       </c>
       <c r="AP5" s="1">
-        <v>2.575822</v>
+        <v>2.5758220000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.643000</v>
+        <v>979.64300000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.949600</v>
+        <v>-90.949600000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>9283.945338</v>
+        <v>9283.9453379999995</v>
       </c>
       <c r="AU5" s="1">
-        <v>2.578874</v>
+        <v>2.5788739999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>989.480000</v>
+        <v>989.48</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.584000</v>
+        <v>-108.584</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>9294.680717</v>
+        <v>9294.6807169999993</v>
       </c>
       <c r="AZ5" s="1">
-        <v>2.581856</v>
+        <v>2.5818560000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.700000</v>
+        <v>997.7</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.194000</v>
+        <v>-124.194</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>9305.326848</v>
+        <v>9305.3268480000006</v>
       </c>
       <c r="BE5" s="1">
         <v>2.584813</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.950000</v>
+        <v>1035.95</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.033000</v>
+        <v>-196.03299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>9316.126773</v>
       </c>
       <c r="BJ5" s="1">
-        <v>2.587813</v>
+        <v>2.5878130000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.128000</v>
+        <v>-313.12799999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>9326.974273</v>
+        <v>9326.9742729999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>2.590826</v>
+        <v>2.5908259999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1208.730000</v>
+        <v>1208.73</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-498.832000</v>
+        <v>-498.83199999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>9337.389236</v>
+        <v>9337.3892360000009</v>
       </c>
       <c r="BT5" s="1">
-        <v>2.593719</v>
+        <v>2.5937190000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1329.500000</v>
+        <v>1329.5</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.859000</v>
+        <v>-703.85900000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>9348.148983</v>
+        <v>9348.1489829999991</v>
       </c>
       <c r="BY5" s="1">
         <v>2.596708</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1465.890000</v>
+        <v>1465.89</v>
       </c>
       <c r="CA5" s="1">
-        <v>-922.440000</v>
+        <v>-922.44</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>9359.412606</v>
+        <v>9359.4126059999999</v>
       </c>
       <c r="CD5" s="1">
         <v>2.599837</v>
       </c>
       <c r="CE5" s="1">
-        <v>1825.370000</v>
+        <v>1825.37</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1442.190000</v>
+        <v>-1442.19</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>9188.599152</v>
+        <v>9188.5991520000007</v>
       </c>
       <c r="B6" s="1">
-        <v>2.552389</v>
+        <v>2.5523889999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>896.126000</v>
+        <v>896.12599999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.832000</v>
+        <v>-200.83199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>9198.992028</v>
+        <v>9198.9920280000006</v>
       </c>
       <c r="G6" s="1">
-        <v>2.555276</v>
+        <v>2.5552760000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>916.065000</v>
+        <v>916.06500000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.930000</v>
+        <v>-168.93</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>9209.148607</v>
+        <v>9209.1486069999992</v>
       </c>
       <c r="L6" s="1">
-        <v>2.558097</v>
+        <v>2.5580970000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>939.211000</v>
+        <v>939.21100000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.778000</v>
+        <v>-119.77800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>9219.676689</v>
+        <v>9219.6766889999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>2.561021</v>
+        <v>2.5610210000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>946.028000</v>
+        <v>946.02800000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.463000</v>
+        <v>-103.46299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>9230.894706</v>
+        <v>9230.8947059999991</v>
       </c>
       <c r="V6" s="1">
-        <v>2.564137</v>
+        <v>2.5641370000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>952.653000</v>
+        <v>952.65300000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.388000</v>
+        <v>-88.388000000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>9241.076083</v>
+        <v>9241.0760829999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>2.566966</v>
+        <v>2.5669659999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.674000</v>
+        <v>959.67399999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.691600</v>
+        <v>-76.691599999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>9251.549109</v>
+        <v>9251.5491089999996</v>
       </c>
       <c r="AF6" s="1">
-        <v>2.569875</v>
+        <v>2.5698750000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.381000</v>
+        <v>964.38099999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.579900</v>
+        <v>-74.579899999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9262.671895</v>
+        <v>9262.6718949999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>2.572964</v>
+        <v>2.5729639999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.473000</v>
+        <v>971.47299999999996</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.546100</v>
+        <v>-79.546099999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>9273.320009</v>
+        <v>9273.3200089999991</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.575922</v>
+        <v>2.5759219999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.638000</v>
+        <v>979.63800000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.969300</v>
+        <v>-90.969300000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>9284.312380</v>
+        <v>9284.3123799999994</v>
       </c>
       <c r="AU6" s="1">
-        <v>2.578976</v>
+        <v>2.5789759999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>989.459000</v>
+        <v>989.45899999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.597000</v>
+        <v>-108.59699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>9295.093388</v>
+        <v>9295.0933879999993</v>
       </c>
       <c r="AZ6" s="1">
-        <v>2.581970</v>
+        <v>2.5819700000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.697000</v>
+        <v>997.697</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.196000</v>
+        <v>-124.196</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>9305.733070</v>
+        <v>9305.7330700000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>2.584926</v>
+        <v>2.5849259999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.076000</v>
+        <v>-196.07599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>9316.480420</v>
+        <v>9316.4804199999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>2.587911</v>
+        <v>2.5879110000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1101.770000</v>
+        <v>1101.77</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.133000</v>
+        <v>-313.13299999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>9327.371041</v>
+        <v>9327.3710410000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>2.590936</v>
+        <v>2.5909360000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1208.700000</v>
+        <v>1208.7</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-498.859000</v>
+        <v>-498.85899999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>9337.817779</v>
+        <v>9337.8177790000009</v>
       </c>
       <c r="BT6" s="1">
-        <v>2.593838</v>
+        <v>2.5938379999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1329.530000</v>
+        <v>1329.53</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.944000</v>
+        <v>-703.94399999999996</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>9348.596837</v>
+        <v>9348.5968369999991</v>
       </c>
       <c r="BY6" s="1">
         <v>2.596832</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1465.830000</v>
+        <v>1465.83</v>
       </c>
       <c r="CA6" s="1">
-        <v>-922.390000</v>
+        <v>-922.39</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>9359.934888</v>
+        <v>9359.9348879999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>2.599982</v>
+        <v>2.5999819999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1825.380000</v>
+        <v>1825.38</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1443.470000</v>
+        <v>-1443.47</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>9188.940104</v>
+        <v>9188.9401039999993</v>
       </c>
       <c r="B7" s="1">
-        <v>2.552483</v>
+        <v>2.5524830000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>896.151000</v>
+        <v>896.15099999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.885000</v>
+        <v>-200.88499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>9199.335754</v>
+        <v>9199.3357539999997</v>
       </c>
       <c r="G7" s="1">
-        <v>2.555371</v>
+        <v>2.5553710000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>915.470000</v>
+        <v>915.47</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.904000</v>
+        <v>-168.904</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>9209.803357</v>
+        <v>9209.8033570000007</v>
       </c>
       <c r="L7" s="1">
-        <v>2.558279</v>
+        <v>2.5582790000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>939.372000</v>
+        <v>939.37199999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.808000</v>
+        <v>-119.80800000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>9220.331407</v>
+        <v>9220.3314069999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>2.561203</v>
+        <v>2.5612029999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>946.069000</v>
+        <v>946.06899999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.428000</v>
+        <v>-103.428</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>9231.255296</v>
+        <v>9231.2552959999994</v>
       </c>
       <c r="V7" s="1">
         <v>2.564238</v>
       </c>
       <c r="W7" s="1">
-        <v>952.557000</v>
+        <v>952.55700000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.411100</v>
+        <v>-88.411100000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>9241.411875</v>
+        <v>9241.4118749999998</v>
       </c>
       <c r="AA7" s="1">
         <v>2.567059</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.739000</v>
+        <v>959.73900000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.801900</v>
+        <v>-76.801900000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>9251.895317</v>
+        <v>9251.8953170000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>2.569971</v>
+        <v>2.5699709999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.409000</v>
+        <v>964.40899999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.602800</v>
+        <v>-74.602800000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>9263.019590</v>
+        <v>9263.0195899999999</v>
       </c>
       <c r="AK7" s="1">
         <v>2.573061</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.490000</v>
+        <v>971.49</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.577900</v>
+        <v>-79.5779</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>9273.677624</v>
+        <v>9273.6776239999999</v>
       </c>
       <c r="AP7" s="1">
         <v>2.576022</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.627000</v>
+        <v>979.62699999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.957300</v>
+        <v>-90.957300000000004</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>9284.721578</v>
+        <v>9284.7215780000006</v>
       </c>
       <c r="AU7" s="1">
-        <v>2.579089</v>
+        <v>2.5790890000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.484000</v>
+        <v>989.48400000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.603000</v>
+        <v>-108.60299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>9295.392972</v>
+        <v>9295.3929719999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>2.582054</v>
+        <v>2.5820539999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.718000</v>
+        <v>997.71799999999996</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.191000</v>
+        <v>-124.191</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>9306.049062</v>
       </c>
       <c r="BE7" s="1">
-        <v>2.585014</v>
+        <v>2.5850140000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.077000</v>
+        <v>-196.077</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>9316.854863</v>
+        <v>9316.8548630000005</v>
       </c>
       <c r="BJ7" s="1">
         <v>2.588015</v>
       </c>
       <c r="BK7" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.127000</v>
+        <v>-313.12700000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>9327.790197</v>
+        <v>9327.7901970000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>2.591053</v>
+        <v>2.5910530000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-498.849000</v>
+        <v>-498.84899999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>9338.242355</v>
+        <v>9338.2423550000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>2.593956</v>
+        <v>2.5939559999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1329.510000</v>
+        <v>1329.51</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.846000</v>
+        <v>-703.846</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>9349.053689</v>
+        <v>9349.0536890000003</v>
       </c>
       <c r="BY7" s="1">
         <v>2.596959</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1465.750000</v>
+        <v>1465.75</v>
       </c>
       <c r="CA7" s="1">
-        <v>-922.405000</v>
+        <v>-922.40499999999997</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>9360.452214</v>
+        <v>9360.4522140000008</v>
       </c>
       <c r="CD7" s="1">
-        <v>2.600126</v>
+        <v>2.6001259999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1825.340000</v>
+        <v>1825.34</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1443.390000</v>
+        <v>-1443.39</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>9189.601767</v>
+        <v>9189.6017670000001</v>
       </c>
       <c r="B8" s="1">
         <v>2.552667</v>
       </c>
       <c r="C8" s="1">
-        <v>895.840000</v>
+        <v>895.84</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.527000</v>
+        <v>-200.52699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>9199.977083</v>
+        <v>9199.9770829999998</v>
       </c>
       <c r="G8" s="1">
-        <v>2.555549</v>
+        <v>2.5555490000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>915.829000</v>
+        <v>915.82899999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.981000</v>
+        <v>-168.98099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>9210.187726</v>
+        <v>9210.1877260000001</v>
       </c>
       <c r="L8" s="1">
-        <v>2.558385</v>
+        <v>2.5583849999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>939.219000</v>
+        <v>939.21900000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.747000</v>
+        <v>-119.747</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>9220.718825</v>
+        <v>9220.7188249999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>2.561311</v>
+        <v>2.5613109999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>946.115000</v>
+        <v>946.11500000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.471000</v>
+        <v>-103.471</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>9231.601504</v>
+        <v>9231.6015040000002</v>
       </c>
       <c r="V8" s="1">
-        <v>2.564334</v>
+        <v>2.5643340000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>952.574000</v>
+        <v>952.57399999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.343500</v>
+        <v>-88.343500000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>9241.773955</v>
+        <v>9241.7739550000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>2.567159</v>
+        <v>2.5671590000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.708000</v>
+        <v>959.70799999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.578900</v>
+        <v>-76.578900000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>9252.243013</v>
+        <v>9252.2430129999993</v>
       </c>
       <c r="AF8" s="1">
         <v>2.570068</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.358000</v>
+        <v>964.35799999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.647700</v>
+        <v>-74.6477</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>9263.429783</v>
+        <v>9263.4297829999996</v>
       </c>
       <c r="AK8" s="1">
         <v>2.573175</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.517000</v>
+        <v>971.51700000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.573700</v>
+        <v>-79.573700000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>9274.093272</v>
+        <v>9274.0932720000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>2.576137</v>
+        <v>2.5761370000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.638000</v>
+        <v>979.63800000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.946100</v>
+        <v>-90.946100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>9285.037993</v>
+        <v>9285.0379929999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>2.579177</v>
+        <v>2.5791770000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.498000</v>
+        <v>989.49800000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.608000</v>
+        <v>-108.608</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>9295.761038</v>
+        <v>9295.7610380000006</v>
       </c>
       <c r="AZ8" s="1">
-        <v>2.582156</v>
+        <v>2.5821559999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.711000</v>
+        <v>997.71100000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.192000</v>
+        <v>-124.19199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>9306.409118</v>
+        <v>9306.4091179999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>2.585114</v>
+        <v>2.5851139999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.075000</v>
+        <v>-196.07499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>9317.231327</v>
+        <v>9317.2313269999995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>2.588120</v>
+        <v>2.58812</v>
       </c>
       <c r="BK8" s="1">
-        <v>1101.770000</v>
+        <v>1101.77</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.110000</v>
+        <v>-313.11</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>9328.484560</v>
+        <v>9328.4845600000008</v>
       </c>
       <c r="BO8" s="1">
-        <v>2.591246</v>
+        <v>2.5912459999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1208.680000</v>
+        <v>1208.68</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-498.879000</v>
+        <v>-498.87900000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>9338.658003</v>
+        <v>9338.6580030000005</v>
       </c>
       <c r="BT8" s="1">
-        <v>2.594072</v>
+        <v>2.5940720000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1329.400000</v>
+        <v>1329.4</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.892000</v>
+        <v>-703.89200000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>9349.502573</v>
+        <v>9349.5025729999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>2.597084</v>
+        <v>2.5970840000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1465.880000</v>
+        <v>1465.88</v>
       </c>
       <c r="CA8" s="1">
-        <v>-922.433000</v>
+        <v>-922.43299999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>9361.002277</v>
+        <v>9361.0022769999996</v>
       </c>
       <c r="CD8" s="1">
-        <v>2.600278</v>
+        <v>2.6002779999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1825.070000</v>
+        <v>1825.07</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1442.640000</v>
+        <v>-1442.64</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>9189.961863</v>
+        <v>9189.9618630000004</v>
       </c>
       <c r="B9" s="1">
-        <v>2.552767</v>
+        <v>2.5527669999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>896.001000</v>
+        <v>896.00099999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.751000</v>
+        <v>-200.751</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>9200.370937</v>
+        <v>9200.3709369999997</v>
       </c>
       <c r="G9" s="1">
-        <v>2.555659</v>
+        <v>2.5556589999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>915.437000</v>
+        <v>915.43700000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.413000</v>
+        <v>-169.41300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>9210.531453</v>
+        <v>9210.5314529999996</v>
       </c>
       <c r="L9" s="1">
         <v>2.558481</v>
       </c>
       <c r="M9" s="1">
-        <v>939.198000</v>
+        <v>939.19799999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.701000</v>
+        <v>-119.70099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>9221.075902</v>
+        <v>9221.0759020000005</v>
       </c>
       <c r="Q9" s="1">
-        <v>2.561410</v>
+        <v>2.56141</v>
       </c>
       <c r="R9" s="1">
-        <v>946.051000</v>
+        <v>946.05100000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.480000</v>
+        <v>-103.48</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>9231.947216</v>
+        <v>9231.9472160000005</v>
       </c>
       <c r="V9" s="1">
-        <v>2.564430</v>
+        <v>2.5644300000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>952.616000</v>
+        <v>952.61599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.335600</v>
+        <v>-88.335599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>9242.184642</v>
+        <v>9242.1846420000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>2.567274</v>
+        <v>2.5672739999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.716000</v>
+        <v>959.71600000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.724800</v>
+        <v>-76.724800000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>9252.654692</v>
+        <v>9252.6546920000001</v>
       </c>
       <c r="AF9" s="1">
         <v>2.570182</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.386000</v>
+        <v>964.38599999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.594600</v>
+        <v>-74.5946</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9263.721926</v>
+        <v>9263.7219260000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>2.573256</v>
+        <v>2.5732560000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.501000</v>
+        <v>971.50099999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.569400</v>
+        <v>-79.569400000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>9274.399800</v>
+        <v>9274.3997999999992</v>
       </c>
       <c r="AP9" s="1">
         <v>2.576222</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.657000</v>
+        <v>979.65700000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.938400</v>
+        <v>-90.938400000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>9285.406520</v>
+        <v>9285.4065200000005</v>
       </c>
       <c r="AU9" s="1">
-        <v>2.579280</v>
+        <v>2.5792799999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.487000</v>
+        <v>989.48699999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.606000</v>
+        <v>-108.60599999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>9296.117627</v>
+        <v>9296.1176269999996</v>
       </c>
       <c r="AZ9" s="1">
         <v>2.582255</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.700000</v>
+        <v>997.7</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.188000</v>
+        <v>-124.188</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>9306.772692</v>
+        <v>9306.7726920000005</v>
       </c>
       <c r="BE9" s="1">
-        <v>2.585215</v>
+        <v>2.5852149999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.960000</v>
+        <v>1035.96</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.108000</v>
+        <v>-196.108</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>9318.004311</v>
+        <v>9318.0043110000006</v>
       </c>
       <c r="BJ9" s="1">
-        <v>2.588335</v>
+        <v>2.5883349999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1101.780000</v>
+        <v>1101.78</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.138000</v>
+        <v>-313.13799999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>9328.608560</v>
+        <v>9328.6085600000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>2.591280</v>
+        <v>2.5912799999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1208.670000</v>
+        <v>1208.67</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-498.852000</v>
+        <v>-498.85199999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>9339.085062</v>
+        <v>9339.0850620000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>2.594190</v>
+        <v>2.5941900000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1329.400000</v>
+        <v>1329.4</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.778000</v>
+        <v>-703.77800000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>9349.960371</v>
+        <v>9349.9603709999992</v>
       </c>
       <c r="BY9" s="1">
-        <v>2.597211</v>
+        <v>2.5972110000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1465.940000</v>
+        <v>1465.94</v>
       </c>
       <c r="CA9" s="1">
-        <v>-922.570000</v>
+        <v>-922.57</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>9361.532996</v>
+        <v>9361.5329959999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>2.600426</v>
+        <v>2.6004260000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.640000</v>
+        <v>1825.64</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1443.900000</v>
+        <v>-1443.9</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>9190.305096</v>
       </c>
       <c r="B10" s="1">
-        <v>2.552863</v>
+        <v>2.5528629999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>896.059000</v>
+        <v>896.05899999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.634000</v>
+        <v>-200.63399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>9200.714936</v>
+        <v>9200.7149360000003</v>
       </c>
       <c r="G10" s="1">
-        <v>2.555754</v>
+        <v>2.5557539999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>915.404000</v>
+        <v>915.404</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.188000</v>
+        <v>-169.18799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>9210.879679</v>
+        <v>9210.8796789999997</v>
       </c>
       <c r="L10" s="1">
-        <v>2.558578</v>
+        <v>2.5585779999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>939.414000</v>
+        <v>939.41399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.696000</v>
+        <v>-119.696</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>9221.507421</v>
+        <v>9221.5074210000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>2.561530</v>
+        <v>2.5615299999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.035000</v>
+        <v>946.03499999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.469000</v>
+        <v>-103.46899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>9232.362367</v>
+        <v>9232.3623669999997</v>
       </c>
       <c r="V10" s="1">
-        <v>2.564545</v>
+        <v>2.5645449999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>952.454000</v>
+        <v>952.45399999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.408100</v>
+        <v>-88.408100000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>9242.480754</v>
+        <v>9242.4807540000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.567356</v>
+        <v>2.5673560000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.621000</v>
+        <v>959.62099999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.722800</v>
+        <v>-76.722800000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>9252.943632</v>
+        <v>9252.9436320000004</v>
       </c>
       <c r="AF10" s="1">
         <v>2.570262</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.365000</v>
+        <v>964.36500000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.603300</v>
+        <v>-74.603300000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>9264.071605</v>
+        <v>9264.0716049999992</v>
       </c>
       <c r="AK10" s="1">
         <v>2.573353</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.506000</v>
+        <v>971.50599999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.575900</v>
+        <v>-79.575900000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>9274.760391</v>
+        <v>9274.7603909999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>2.576322</v>
+        <v>2.5763219999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.635000</v>
+        <v>979.63499999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.945200</v>
+        <v>-90.9452</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>9285.768104</v>
+        <v>9285.7681040000007</v>
       </c>
       <c r="AU10" s="1">
-        <v>2.579380</v>
+        <v>2.57938</v>
       </c>
       <c r="AV10" s="1">
-        <v>989.492000</v>
+        <v>989.49199999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.581000</v>
+        <v>-108.581</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>9296.834346</v>
+        <v>9296.8343459999996</v>
       </c>
       <c r="AZ10" s="1">
-        <v>2.582454</v>
+        <v>2.5824539999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.693000</v>
+        <v>997.69299999999998</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>9307.499324</v>
+        <v>9307.4993240000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>2.585416</v>
+        <v>2.5854159999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.101000</v>
+        <v>-196.101</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>9318.378077</v>
+        <v>9318.3780769999994</v>
       </c>
       <c r="BJ10" s="1">
         <v>2.588438</v>
       </c>
       <c r="BK10" s="1">
-        <v>1101.740000</v>
+        <v>1101.74</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.126000</v>
+        <v>-313.12599999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>9329.033631</v>
+        <v>9329.0336310000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>2.591398</v>
+        <v>2.5913979999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-498.851000</v>
+        <v>-498.851</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>9339.515617</v>
+        <v>9339.5156169999991</v>
       </c>
       <c r="BT10" s="1">
-        <v>2.594310</v>
+        <v>2.5943100000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1329.390000</v>
+        <v>1329.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.870000</v>
+        <v>-703.87</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>9350.721202</v>
+        <v>9350.7212020000006</v>
       </c>
       <c r="BY10" s="1">
         <v>2.597423</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1465.840000</v>
+        <v>1465.84</v>
       </c>
       <c r="CA10" s="1">
-        <v>-922.437000</v>
+        <v>-922.43700000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>9362.349907</v>
+        <v>9362.3499069999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>2.600653</v>
+        <v>2.6006529999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.510000</v>
+        <v>1826.51</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1443.170000</v>
+        <v>-1443.17</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>9190.647862</v>
+        <v>9190.6478619999998</v>
       </c>
       <c r="B11" s="1">
-        <v>2.552958</v>
+        <v>2.5529579999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>896.070000</v>
+        <v>896.07</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.734000</v>
+        <v>-200.73400000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>9201.060344</v>
+        <v>9201.0603439999995</v>
       </c>
       <c r="G11" s="1">
-        <v>2.555850</v>
+        <v>2.55585</v>
       </c>
       <c r="H11" s="1">
-        <v>915.884000</v>
+        <v>915.88400000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.476000</v>
+        <v>-168.476</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>9211.289835</v>
+        <v>9211.2898349999996</v>
       </c>
       <c r="L11" s="1">
-        <v>2.558692</v>
+        <v>2.5586920000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>939.104000</v>
+        <v>939.10400000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.706000</v>
+        <v>-119.706</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>9222.133372</v>
+        <v>9222.1333720000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>2.561704</v>
+        <v>2.5617040000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>946.030000</v>
+        <v>946.03</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.437000</v>
+        <v>-103.437</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>9232.642111</v>
+        <v>9232.6421109999992</v>
       </c>
       <c r="V11" s="1">
-        <v>2.564623</v>
+        <v>2.5646230000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>952.261000</v>
+        <v>952.26099999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.643500</v>
+        <v>-88.643500000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>9242.831954</v>
+        <v>9242.8319539999993</v>
       </c>
       <c r="AA11" s="1">
         <v>2.567453</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.747000</v>
+        <v>959.74699999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.786600</v>
+        <v>-76.786600000000007</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>9253.290067</v>
+        <v>9253.2900669999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>2.570358</v>
+        <v>2.5703580000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.364000</v>
+        <v>964.36400000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.604500</v>
+        <v>-74.604500000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>9264.419329</v>
+        <v>9264.4193290000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>2.573450</v>
+        <v>2.5734499999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.486000</v>
+        <v>971.48599999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.561200</v>
+        <v>-79.561199999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>9275.482567</v>
+        <v>9275.4825669999991</v>
       </c>
       <c r="AP11" s="1">
-        <v>2.576523</v>
+        <v>2.5765229999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.629000</v>
+        <v>979.62900000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.933600</v>
+        <v>-90.933599999999998</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>9286.498216</v>
@@ -2929,1812 +3345,1812 @@
         <v>2.579583</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.488000</v>
+        <v>989.48800000000006</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.605000</v>
+        <v>-108.605</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>9297.224697</v>
+        <v>9297.2246969999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>2.582562</v>
+        <v>2.5825619999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.718000</v>
+        <v>997.71799999999996</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.192000</v>
+        <v>-124.19199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>9307.877771</v>
+        <v>9307.8777709999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>2.585522</v>
+        <v>2.5855220000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.099000</v>
+        <v>-196.09899999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>9318.758013</v>
+        <v>9318.7580130000006</v>
       </c>
       <c r="BJ11" s="1">
-        <v>2.588544</v>
+        <v>2.5885440000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.133000</v>
+        <v>-313.13299999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>9329.730050</v>
+        <v>9329.7300500000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>2.591592</v>
+        <v>2.5915919999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-498.858000</v>
+        <v>-498.858</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>9340.226848</v>
+        <v>9340.2268480000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>2.594507</v>
+        <v>2.5945070000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1329.440000</v>
+        <v>1329.44</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.794000</v>
+        <v>-703.79399999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>9350.859092</v>
+        <v>9350.8590920000006</v>
       </c>
       <c r="BY11" s="1">
         <v>2.597461</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1465.910000</v>
+        <v>1465.91</v>
       </c>
       <c r="CA11" s="1">
-        <v>-922.452000</v>
+        <v>-922.452</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>9362.567167</v>
+        <v>9362.5671669999992</v>
       </c>
       <c r="CD11" s="1">
-        <v>2.600713</v>
+        <v>2.6007129999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1825.680000</v>
+        <v>1825.68</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1442.300000</v>
+        <v>-1442.3</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>9191.068933</v>
+        <v>9191.0689330000005</v>
       </c>
       <c r="B12" s="1">
-        <v>2.553075</v>
+        <v>2.5530750000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>896.119000</v>
+        <v>896.11900000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.660000</v>
+        <v>-200.66</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>9201.474041</v>
+        <v>9201.4740409999995</v>
       </c>
       <c r="G12" s="1">
         <v>2.555965</v>
       </c>
       <c r="H12" s="1">
-        <v>915.366000</v>
+        <v>915.36599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.171000</v>
+        <v>-169.17099999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>9211.591403</v>
+        <v>9211.5914030000004</v>
       </c>
       <c r="L12" s="1">
-        <v>2.558775</v>
+        <v>2.5587749999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>939.192000</v>
+        <v>939.19200000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.792000</v>
+        <v>-119.792</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>9222.486524</v>
+        <v>9222.4865239999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>2.561802</v>
+        <v>2.5618020000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.007000</v>
+        <v>946.00699999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.384000</v>
+        <v>-103.384</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>9232.998240</v>
+        <v>9232.9982400000008</v>
       </c>
       <c r="V12" s="1">
-        <v>2.564722</v>
+        <v>2.5647220000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>952.241000</v>
+        <v>952.24099999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.752200</v>
+        <v>-88.752200000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>9243.177685</v>
+        <v>9243.1776850000006</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.567549</v>
+        <v>2.5675490000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.718000</v>
+        <v>959.71799999999996</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.784900</v>
+        <v>-76.784899999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>9253.632307</v>
+        <v>9253.6323069999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>2.570453</v>
+        <v>2.5704530000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.395000</v>
+        <v>964.39499999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.597500</v>
+        <v>-74.597499999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>9265.115188</v>
+        <v>9265.1151879999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>2.573643</v>
+        <v>2.5736430000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.450000</v>
+        <v>971.45</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.428700</v>
+        <v>-79.428700000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>9275.842662</v>
+        <v>9275.8426619999991</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.576623</v>
+        <v>2.5766230000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.645000</v>
+        <v>979.64499999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.935700</v>
+        <v>-90.935699999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>9286.860824</v>
+        <v>9286.8608239999994</v>
       </c>
       <c r="AU12" s="1">
-        <v>2.579684</v>
+        <v>2.5796839999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.493000</v>
+        <v>989.49300000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.599000</v>
+        <v>-108.599</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>9297.600202</v>
+        <v>9297.6002019999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>2.582667</v>
+        <v>2.5826669999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.724000</v>
+        <v>997.72400000000005</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.197000</v>
+        <v>-124.197</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>9308.236411</v>
+        <v>9308.2364109999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>2.585621</v>
+        <v>2.5856210000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1036.000000</v>
+        <v>1036</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.114000</v>
+        <v>-196.114</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>9319.429631</v>
+        <v>9319.4296310000009</v>
       </c>
       <c r="BJ12" s="1">
-        <v>2.588730</v>
+        <v>2.58873</v>
       </c>
       <c r="BK12" s="1">
-        <v>1101.780000</v>
+        <v>1101.78</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.139000</v>
+        <v>-313.13900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>9329.850574</v>
+        <v>9329.8505740000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>2.591625</v>
+        <v>2.5916250000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-498.852000</v>
+        <v>-498.85199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>9340.359808</v>
+        <v>9340.3598079999992</v>
       </c>
       <c r="BT12" s="1">
         <v>2.594544</v>
       </c>
       <c r="BU12" s="1">
-        <v>1329.410000</v>
+        <v>1329.41</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.824000</v>
+        <v>-703.82399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>9351.274771</v>
+        <v>9351.2747710000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>2.597576</v>
+        <v>2.5975760000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1465.780000</v>
+        <v>1465.78</v>
       </c>
       <c r="CA12" s="1">
-        <v>-922.416000</v>
+        <v>-922.41600000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>9363.303218</v>
+        <v>9363.3032179999991</v>
       </c>
       <c r="CD12" s="1">
-        <v>2.600918</v>
+        <v>2.6009180000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.140000</v>
+        <v>1825.14</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1443.440000</v>
+        <v>-1443.44</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>9191.348181</v>
+        <v>9191.3481809999994</v>
       </c>
       <c r="B13" s="1">
-        <v>2.553152</v>
+        <v>2.5531519999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>896.203000</v>
+        <v>896.20299999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.652000</v>
+        <v>-200.65199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>9201.770651</v>
+        <v>9201.7706510000007</v>
       </c>
       <c r="G13" s="1">
         <v>2.556047</v>
       </c>
       <c r="H13" s="1">
-        <v>915.591000</v>
+        <v>915.59100000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.844000</v>
+        <v>-168.84399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>9211.938106</v>
+        <v>9211.9381059999996</v>
       </c>
       <c r="L13" s="1">
         <v>2.558872</v>
       </c>
       <c r="M13" s="1">
-        <v>939.244000</v>
+        <v>939.24400000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.728000</v>
+        <v>-119.72799999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>9222.832733</v>
+        <v>9222.8327329999993</v>
       </c>
       <c r="Q13" s="1">
-        <v>2.561898</v>
+        <v>2.5618979999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>946.067000</v>
+        <v>946.06700000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.456000</v>
+        <v>-103.456</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>9233.337998</v>
+        <v>9233.3379980000009</v>
       </c>
       <c r="V13" s="1">
         <v>2.564816</v>
       </c>
       <c r="W13" s="1">
-        <v>952.251000</v>
+        <v>952.25099999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.769300</v>
+        <v>-88.769300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>9243.877611</v>
+        <v>9243.8776109999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.567744</v>
+        <v>2.5677439999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.739000</v>
+        <v>959.73900000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.817800</v>
+        <v>-76.817800000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>9254.320258</v>
+        <v>9254.3202579999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.570645</v>
+        <v>2.5706449999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.412000</v>
+        <v>964.41200000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.602300</v>
+        <v>-74.6023</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9265.463875</v>
+        <v>9265.4638749999995</v>
       </c>
       <c r="AK13" s="1">
-        <v>2.573740</v>
+        <v>2.5737399999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.456000</v>
+        <v>971.45600000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.486500</v>
+        <v>-79.486500000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>9276.201300</v>
+        <v>9276.2013000000006</v>
       </c>
       <c r="AP13" s="1">
-        <v>2.576723</v>
+        <v>2.5767229999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.619000</v>
+        <v>979.61900000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.955600</v>
+        <v>-90.955600000000004</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>9287.226374</v>
+        <v>9287.2263739999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.579785</v>
+        <v>2.5797850000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>989.481000</v>
+        <v>989.48099999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.630000</v>
+        <v>-108.63</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>9298.271257</v>
+        <v>9298.2712570000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>2.582853</v>
+        <v>2.5828530000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.712000</v>
+        <v>997.71199999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.184000</v>
+        <v>-124.184</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>9308.909450</v>
+        <v>9308.9094499999992</v>
       </c>
       <c r="BE13" s="1">
-        <v>2.585808</v>
+        <v>2.5858080000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.980000</v>
+        <v>1035.98</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.096000</v>
+        <v>-196.096</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>9319.538715</v>
+        <v>9319.5387150000006</v>
       </c>
       <c r="BJ13" s="1">
-        <v>2.588761</v>
+        <v>2.5887609999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.145000</v>
+        <v>-313.14499999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>9330.280077</v>
+        <v>9330.2800769999994</v>
       </c>
       <c r="BO13" s="1">
-        <v>2.591744</v>
+        <v>2.5917439999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1208.730000</v>
+        <v>1208.73</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-498.845000</v>
+        <v>-498.84500000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>9340.796751</v>
+        <v>9340.7967509999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>2.594666</v>
+        <v>2.5946660000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1329.380000</v>
+        <v>1329.38</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.807000</v>
+        <v>-703.80700000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>9351.705297</v>
+        <v>9351.7052970000004</v>
       </c>
       <c r="BY13" s="1">
         <v>2.597696</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1465.960000</v>
+        <v>1465.96</v>
       </c>
       <c r="CA13" s="1">
-        <v>-922.450000</v>
+        <v>-922.45</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>9363.895473</v>
+        <v>9363.8954730000005</v>
       </c>
       <c r="CD13" s="1">
-        <v>2.601082</v>
+        <v>2.6010819999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1826.430000</v>
+        <v>1826.43</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1443.750000</v>
+        <v>-1443.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>9191.686986</v>
+        <v>9191.6869860000006</v>
       </c>
       <c r="B14" s="1">
-        <v>2.553246</v>
+        <v>2.5532460000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>896.072000</v>
+        <v>896.072</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.575000</v>
+        <v>-200.57499999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>9202.116327</v>
+        <v>9202.1163269999997</v>
       </c>
       <c r="G14" s="1">
-        <v>2.556143</v>
+        <v>2.5561430000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>915.247000</v>
+        <v>915.24699999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.867000</v>
+        <v>-168.86699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>9212.282329</v>
+        <v>9212.2823289999997</v>
       </c>
       <c r="L14" s="1">
         <v>2.558967</v>
       </c>
       <c r="M14" s="1">
-        <v>939.175000</v>
+        <v>939.17499999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.785000</v>
+        <v>-119.785</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>9223.529614</v>
+        <v>9223.5296139999991</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.562092</v>
+        <v>2.5620919999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>946.064000</v>
+        <v>946.06399999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.477000</v>
+        <v>-103.477</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>9234.024988</v>
+        <v>9234.0249879999992</v>
       </c>
       <c r="V14" s="1">
         <v>2.565007</v>
       </c>
       <c r="W14" s="1">
-        <v>952.201000</v>
+        <v>952.20100000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.756400</v>
+        <v>-88.756399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>9244.223695</v>
+        <v>9244.2236950000006</v>
       </c>
       <c r="AA14" s="1">
-        <v>2.567840</v>
+        <v>2.5678399999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.559000</v>
+        <v>959.55899999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.792400</v>
+        <v>-76.792400000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>9254.662994</v>
+        <v>9254.6629940000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>2.570740</v>
+        <v>2.5707399999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.369000</v>
+        <v>964.36900000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.613600</v>
+        <v>-74.613600000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>9265.815076</v>
+        <v>9265.8150760000008</v>
       </c>
       <c r="AK14" s="1">
-        <v>2.573838</v>
+        <v>2.5738379999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.473000</v>
+        <v>971.47299999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.438800</v>
+        <v>-79.438800000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>9276.866900</v>
+        <v>9276.8669000000009</v>
       </c>
       <c r="AP14" s="1">
-        <v>2.576907</v>
+        <v>2.5769069999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.625000</v>
+        <v>979.625</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.944000</v>
+        <v>-90.944000000000003</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>9287.892469</v>
+        <v>9287.8924690000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>2.579970</v>
+        <v>2.5799699999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>989.497000</v>
+        <v>989.49699999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.608000</v>
+        <v>-108.608</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>9298.684920</v>
+        <v>9298.6849199999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>2.582968</v>
+        <v>2.5829680000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.729000</v>
+        <v>997.72900000000004</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>9309.351913</v>
+        <v>9309.3519130000004</v>
       </c>
       <c r="BE14" s="1">
         <v>2.585931</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.980000</v>
+        <v>1035.98</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.104000</v>
+        <v>-196.10400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>9319.908235</v>
+        <v>9319.9082350000008</v>
       </c>
       <c r="BJ14" s="1">
-        <v>2.588863</v>
+        <v>2.5888629999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1101.780000</v>
+        <v>1101.78</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.131000</v>
+        <v>-313.13099999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>9330.675420</v>
+        <v>9330.6754199999996</v>
       </c>
       <c r="BO14" s="1">
-        <v>2.591854</v>
+        <v>2.5918540000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-498.884000</v>
+        <v>-498.88400000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>9341.225295</v>
+        <v>9341.2252950000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>2.594785</v>
+        <v>2.5947849999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1329.360000</v>
+        <v>1329.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.739000</v>
+        <v>-703.73900000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>9352.121905</v>
       </c>
       <c r="BY14" s="1">
-        <v>2.597812</v>
+        <v>2.5978119999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1465.910000</v>
+        <v>1465.91</v>
       </c>
       <c r="CA14" s="1">
-        <v>-922.480000</v>
+        <v>-922.48</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>9364.152369</v>
+        <v>9364.1523689999995</v>
       </c>
       <c r="CD14" s="1">
         <v>2.601153</v>
       </c>
       <c r="CE14" s="1">
-        <v>1825.980000</v>
+        <v>1825.98</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1442.350000</v>
+        <v>-1442.35</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>9192.030676</v>
+        <v>9192.0306760000003</v>
       </c>
       <c r="B15" s="1">
-        <v>2.553342</v>
+        <v>2.5533419999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>896.023000</v>
+        <v>896.02300000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.761000</v>
+        <v>-200.761</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>9202.460054</v>
+        <v>9202.4600539999992</v>
       </c>
       <c r="G15" s="1">
-        <v>2.556239</v>
+        <v>2.5562390000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>915.817000</v>
+        <v>915.81700000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.553000</v>
+        <v>-168.553</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>9212.971768</v>
+        <v>9212.9717679999994</v>
       </c>
       <c r="L15" s="1">
-        <v>2.559159</v>
+        <v>2.5591590000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>939.213000</v>
+        <v>939.21299999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.709000</v>
+        <v>-119.709</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>9223.878298</v>
+        <v>9223.8782979999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>2.562188</v>
+        <v>2.5621879999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.031000</v>
+        <v>946.03099999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.466000</v>
+        <v>-103.46599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>9234.367692</v>
+        <v>9234.3676919999998</v>
       </c>
       <c r="V15" s="1">
         <v>2.565102</v>
       </c>
       <c r="W15" s="1">
-        <v>952.240000</v>
+        <v>952.24</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.713600</v>
+        <v>-88.7136</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>9244.574863</v>
+        <v>9244.5748629999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.567937</v>
+        <v>2.5679370000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.653000</v>
+        <v>959.65300000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.781300</v>
+        <v>-76.781300000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>9255.007713</v>
+        <v>9255.0077130000009</v>
       </c>
       <c r="AF15" s="1">
-        <v>2.570835</v>
+        <v>2.5708350000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.372000</v>
+        <v>964.37199999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.646900</v>
+        <v>-74.646900000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>9266.476210</v>
+        <v>9266.4762100000007</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.574021</v>
+        <v>2.5740210000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.443000</v>
+        <v>971.44299999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.444200</v>
+        <v>-79.444199999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>9277.282547</v>
+        <v>9277.2825470000007</v>
       </c>
       <c r="AP15" s="1">
-        <v>2.577023</v>
+        <v>2.5770230000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.634000</v>
+        <v>979.63400000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.959900</v>
+        <v>-90.959900000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>9288.321012</v>
+        <v>9288.3210120000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.580089</v>
+        <v>2.5800890000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.500000</v>
+        <v>989.5</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.587000</v>
+        <v>-108.587</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>9299.059435</v>
+        <v>9299.0594349999992</v>
       </c>
       <c r="AZ15" s="1">
         <v>2.583072</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.732000</v>
+        <v>997.73199999999997</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.203000</v>
+        <v>-124.203</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>9309.715448</v>
+        <v>9309.7154480000008</v>
       </c>
       <c r="BE15" s="1">
-        <v>2.586032</v>
+        <v>2.5860319999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.980000</v>
+        <v>1035.98</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.096000</v>
+        <v>-196.096</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>9320.282746</v>
+        <v>9320.2827460000008</v>
       </c>
       <c r="BJ15" s="1">
-        <v>2.588967</v>
+        <v>2.5889669999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1101.750000</v>
+        <v>1101.75</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.123000</v>
+        <v>-313.12299999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>9331.097981</v>
+        <v>9331.0979810000008</v>
       </c>
       <c r="BO15" s="1">
-        <v>2.591972</v>
+        <v>2.5919720000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-498.852000</v>
+        <v>-498.85199999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>9341.653344</v>
+        <v>9341.6533440000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>2.594904</v>
+        <v>2.5949040000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1329.410000</v>
+        <v>1329.41</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.741000</v>
+        <v>-703.74099999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>9352.568831</v>
+        <v>9352.5688310000005</v>
       </c>
       <c r="BY15" s="1">
-        <v>2.597936</v>
+        <v>2.5979359999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1465.850000</v>
+        <v>1465.85</v>
       </c>
       <c r="CA15" s="1">
-        <v>-922.353000</v>
+        <v>-922.35299999999995</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>9364.686561</v>
+        <v>9364.6865610000004</v>
       </c>
       <c r="CD15" s="1">
         <v>2.601302</v>
       </c>
       <c r="CE15" s="1">
-        <v>1825.330000</v>
+        <v>1825.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1443.500000</v>
+        <v>-1443.5</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>9192.711715</v>
+        <v>9192.7117149999995</v>
       </c>
       <c r="B16" s="1">
         <v>2.553531</v>
       </c>
       <c r="C16" s="1">
-        <v>896.088000</v>
+        <v>896.08799999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.740000</v>
+        <v>-200.74</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>9203.148502</v>
       </c>
       <c r="G16" s="1">
-        <v>2.556430</v>
+        <v>2.5564300000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>915.615000</v>
+        <v>915.61500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.019000</v>
+        <v>-169.01900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>9213.318969</v>
+        <v>9213.3189689999999</v>
       </c>
       <c r="L16" s="1">
-        <v>2.559255</v>
+        <v>2.5592549999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>939.188000</v>
+        <v>939.18799999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.879000</v>
+        <v>-119.879</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>9224.227481</v>
+        <v>9224.2274809999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>2.562285</v>
+        <v>2.5622850000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>946.035000</v>
+        <v>946.03499999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.480000</v>
+        <v>-103.48</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>9234.716380</v>
+        <v>9234.7163799999998</v>
       </c>
       <c r="V16" s="1">
-        <v>2.565199</v>
+        <v>2.5651989999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>952.248000</v>
+        <v>952.24800000000005</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.736000</v>
+        <v>-88.736000000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>9245.225150</v>
+        <v>9245.2251500000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>2.568118</v>
+        <v>2.5681180000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.700000</v>
+        <v>959.7</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.810900</v>
+        <v>-76.810900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>9255.671360</v>
+        <v>9255.6713600000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.571020</v>
+        <v>2.5710199999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.342000</v>
+        <v>964.34199999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.612200</v>
+        <v>-74.612200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>9266.859121</v>
+        <v>9266.8591209999995</v>
       </c>
       <c r="AK16" s="1">
         <v>2.574128</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.471000</v>
+        <v>971.471</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.400000</v>
+        <v>-79.400000000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>9277.664500</v>
+        <v>9277.6645000000008</v>
       </c>
       <c r="AP16" s="1">
-        <v>2.577129</v>
+        <v>2.5771289999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.583000</v>
+        <v>979.58299999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.967900</v>
+        <v>-90.9679</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>9288.687557</v>
+        <v>9288.6875569999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>2.580191</v>
+        <v>2.5801910000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>989.493000</v>
+        <v>989.49300000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.603000</v>
+        <v>-108.60299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>9299.439446</v>
+        <v>9299.4394460000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>2.583178</v>
+        <v>2.5831780000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.721000</v>
+        <v>997.721</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.184000</v>
+        <v>-124.184</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>9310.098360</v>
+        <v>9310.09836</v>
       </c>
       <c r="BE16" s="1">
         <v>2.586138</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.110000</v>
+        <v>-196.11</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>9320.704849</v>
+        <v>9320.7048489999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>2.589085</v>
+        <v>2.5890849999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1101.770000</v>
+        <v>1101.77</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.135000</v>
+        <v>-313.13499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>9331.495276</v>
+        <v>9331.4952759999996</v>
       </c>
       <c r="BO16" s="1">
         <v>2.592082</v>
       </c>
       <c r="BP16" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-498.876000</v>
+        <v>-498.87599999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>9342.068867</v>
       </c>
       <c r="BT16" s="1">
-        <v>2.595019</v>
+        <v>2.5950190000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1329.390000</v>
+        <v>1329.39</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.752000</v>
+        <v>-703.75199999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>9352.990928</v>
+        <v>9352.9909279999993</v>
       </c>
       <c r="BY16" s="1">
-        <v>2.598053</v>
+        <v>2.5980530000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1465.780000</v>
+        <v>1465.78</v>
       </c>
       <c r="CA16" s="1">
-        <v>-922.426000</v>
+        <v>-922.42600000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>9365.226703</v>
+        <v>9365.2267030000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>2.601452</v>
+        <v>2.6014520000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.030000</v>
+        <v>1827.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1442.900000</v>
+        <v>-1442.9</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>9193.058883</v>
+        <v>9193.0588829999997</v>
       </c>
       <c r="B17" s="1">
-        <v>2.553627</v>
+        <v>2.5536270000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>895.977000</v>
+        <v>895.97699999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.588000</v>
+        <v>-200.58799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>9203.492761</v>
+        <v>9203.4927609999995</v>
       </c>
       <c r="G17" s="1">
-        <v>2.556526</v>
+        <v>2.5565259999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>915.818000</v>
+        <v>915.81799999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.865000</v>
+        <v>-168.86500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>9213.663689</v>
+        <v>9213.6636890000009</v>
       </c>
       <c r="L17" s="1">
-        <v>2.559351</v>
+        <v>2.5593509999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>939.165000</v>
+        <v>939.16499999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.789000</v>
+        <v>-119.789</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>9224.882203</v>
+        <v>9224.8822029999992</v>
       </c>
       <c r="Q17" s="1">
-        <v>2.562467</v>
+        <v>2.5624669999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>946.059000</v>
+        <v>946.05899999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.421000</v>
+        <v>-103.42100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>9235.364685</v>
+        <v>9235.3646850000005</v>
       </c>
       <c r="V17" s="1">
-        <v>2.565379</v>
+        <v>2.5653790000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>952.221000</v>
+        <v>952.221</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.746100</v>
+        <v>-88.746099999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>9245.616497</v>
+        <v>9245.6164970000009</v>
       </c>
       <c r="AA17" s="1">
-        <v>2.568227</v>
+        <v>2.5682269999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.786000</v>
+        <v>959.78599999999994</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.836900</v>
+        <v>-76.8369</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>9256.026495</v>
+        <v>9256.0264950000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>2.571118</v>
+        <v>2.5711179999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.474000</v>
+        <v>964.47400000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.676200</v>
+        <v>-74.676199999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>9267.210785</v>
+        <v>9267.2107849999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>2.574225</v>
+        <v>2.5742250000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.457000</v>
+        <v>971.45699999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.463300</v>
+        <v>-79.463300000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>9278.022580</v>
+        <v>9278.0225800000007</v>
       </c>
       <c r="AP17" s="1">
-        <v>2.577228</v>
+        <v>2.5772279999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.596000</v>
+        <v>979.596</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.007500</v>
+        <v>-91.007499999999993</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>9289.049173</v>
+        <v>9289.0491729999994</v>
       </c>
       <c r="AU17" s="1">
-        <v>2.580291</v>
+        <v>2.5802909999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.515000</v>
+        <v>989.51499999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.597000</v>
+        <v>-108.59699999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>9299.852998</v>
+        <v>9299.8529980000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>2.583292</v>
+        <v>2.5832920000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.715000</v>
+        <v>997.71500000000003</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.183000</v>
+        <v>-124.18300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>9310.599358</v>
+        <v>9310.5993579999995</v>
       </c>
       <c r="BE17" s="1">
-        <v>2.586278</v>
+        <v>2.5862780000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.084000</v>
+        <v>-196.084</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>9321.041098</v>
+        <v>9321.0410979999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>2.589178</v>
       </c>
       <c r="BK17" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.095000</v>
+        <v>-313.09500000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>9331.918364</v>
+        <v>9331.9183639999992</v>
       </c>
       <c r="BO17" s="1">
-        <v>2.592200</v>
+        <v>2.5922000000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-498.891000</v>
+        <v>-498.89100000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>9342.494061</v>
+        <v>9342.4940609999994</v>
       </c>
       <c r="BT17" s="1">
-        <v>2.595137</v>
+        <v>2.5951369999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1329.330000</v>
+        <v>1329.33</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.732000</v>
+        <v>-703.73199999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>9353.412998</v>
+        <v>9353.4129979999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>2.598170</v>
+        <v>2.5981700000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1465.840000</v>
+        <v>1465.84</v>
       </c>
       <c r="CA17" s="1">
-        <v>-922.417000</v>
+        <v>-922.41700000000003</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>9365.766351</v>
+        <v>9365.7663510000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>2.601602</v>
+        <v>2.6016020000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1825.020000</v>
+        <v>1825.02</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1442.480000</v>
+        <v>-1442.48</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>9193.398146</v>
+        <v>9193.3981459999995</v>
       </c>
       <c r="B18" s="1">
         <v>2.553722</v>
       </c>
       <c r="C18" s="1">
-        <v>896.059000</v>
+        <v>896.05899999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.490000</v>
+        <v>-200.49</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>9203.898006</v>
+        <v>9203.8980059999994</v>
       </c>
       <c r="G18" s="1">
         <v>2.556638</v>
       </c>
       <c r="H18" s="1">
-        <v>915.998000</v>
+        <v>915.99800000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.196000</v>
+        <v>-169.196</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>9214.318439</v>
+        <v>9214.3184390000006</v>
       </c>
       <c r="L18" s="1">
-        <v>2.559533</v>
+        <v>2.5595330000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.066000</v>
+        <v>939.06600000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.753000</v>
+        <v>-119.753</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>9225.273080</v>
+        <v>9225.2730800000008</v>
       </c>
       <c r="Q18" s="1">
         <v>2.562576</v>
       </c>
       <c r="R18" s="1">
-        <v>946.083000</v>
+        <v>946.08299999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.465000</v>
+        <v>-103.465</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>9235.751067</v>
+        <v>9235.7510669999992</v>
       </c>
       <c r="V18" s="1">
-        <v>2.565486</v>
+        <v>2.5654859999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>952.207000</v>
+        <v>952.20699999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.719200</v>
+        <v>-88.719200000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>9245.967660</v>
+        <v>9245.9676600000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.568324</v>
+        <v>2.5683240000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.687000</v>
+        <v>959.68700000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.767000</v>
+        <v>-76.766999999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>9256.378160</v>
+        <v>9256.3781600000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>2.571216</v>
+        <v>2.5712160000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.370000</v>
+        <v>964.37</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.591600</v>
+        <v>-74.5916</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>9267.559968</v>
+        <v>9267.5599679999996</v>
       </c>
       <c r="AK18" s="1">
         <v>2.574322</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.464000</v>
+        <v>971.46400000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.489200</v>
+        <v>-79.489199999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>9278.439218</v>
+        <v>9278.4392179999995</v>
       </c>
       <c r="AP18" s="1">
-        <v>2.577344</v>
+        <v>2.5773440000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.560000</v>
+        <v>979.56</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.999600</v>
+        <v>-90.999600000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>9289.454867</v>
+        <v>9289.4548670000004</v>
       </c>
       <c r="AU18" s="1">
-        <v>2.580404</v>
+        <v>2.5804040000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>989.490000</v>
+        <v>989.49</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.602000</v>
+        <v>-108.602</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>9300.155933</v>
@@ -4743,1615 +5159,1615 @@
         <v>2.583377</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.716000</v>
+        <v>997.71600000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.200000</v>
+        <v>-124.2</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>9310.800201</v>
       </c>
       <c r="BE18" s="1">
-        <v>2.586333</v>
+        <v>2.5863330000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.091000</v>
+        <v>-196.09100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>9321.433433</v>
+        <v>9321.4334330000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>2.589287</v>
+        <v>2.5892870000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.135000</v>
+        <v>-313.13499999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>9332.312715</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.592309</v>
+        <v>2.5923090000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1208.730000</v>
+        <v>1208.73</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-498.834000</v>
+        <v>-498.834</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>9342.909213</v>
+        <v>9342.9092130000008</v>
       </c>
       <c r="BT18" s="1">
         <v>2.595253</v>
       </c>
       <c r="BU18" s="1">
-        <v>1329.340000</v>
+        <v>1329.34</v>
       </c>
       <c r="BV18" s="1">
-        <v>-703.689000</v>
+        <v>-703.68899999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>9353.859422</v>
+        <v>9353.8594219999995</v>
       </c>
       <c r="BY18" s="1">
-        <v>2.598294</v>
+        <v>2.5982940000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1465.890000</v>
+        <v>1465.89</v>
       </c>
       <c r="CA18" s="1">
-        <v>-922.477000</v>
+        <v>-922.47699999999998</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>9366.304047</v>
+        <v>9366.3040469999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>2.601751</v>
+        <v>2.6017510000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1826.470000</v>
+        <v>1826.47</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1443.910000</v>
+        <v>-1443.91</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>9194.045954</v>
+        <v>9194.0459539999993</v>
       </c>
       <c r="B19" s="1">
-        <v>2.553902</v>
+        <v>2.5539019999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>896.029000</v>
+        <v>896.029</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.458000</v>
+        <v>-200.458</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>9204.410325</v>
+        <v>9204.4103250000007</v>
       </c>
       <c r="G19" s="1">
         <v>2.556781</v>
       </c>
       <c r="H19" s="1">
-        <v>915.775000</v>
+        <v>915.77499999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.760000</v>
+        <v>-168.76</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>9214.700822</v>
+        <v>9214.7008220000007</v>
       </c>
       <c r="L19" s="1">
-        <v>2.559639</v>
+        <v>2.5596390000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>939.362000</v>
+        <v>939.36199999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.822000</v>
+        <v>-119.822</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>9225.621737</v>
+        <v>9225.6217369999995</v>
       </c>
       <c r="Q19" s="1">
-        <v>2.562673</v>
+        <v>2.5626730000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>946.073000</v>
+        <v>946.07299999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.485000</v>
+        <v>-103.485</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>9236.100218</v>
+        <v>9236.1002179999996</v>
       </c>
       <c r="V19" s="1">
-        <v>2.565583</v>
+        <v>2.5655830000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>952.215000</v>
+        <v>952.21500000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.868600</v>
+        <v>-88.868600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>9246.316850</v>
+        <v>9246.3168499999992</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.568421</v>
+        <v>2.5684209999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.674000</v>
+        <v>959.67399999999998</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.730500</v>
+        <v>-76.730500000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>9256.769999</v>
+        <v>9256.7699990000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>2.571325</v>
+        <v>2.5713249999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.375000</v>
+        <v>964.375</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.619200</v>
+        <v>-74.619200000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>9267.970655</v>
+        <v>9267.9706549999992</v>
       </c>
       <c r="AK19" s="1">
-        <v>2.574436</v>
+        <v>2.5744359999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.464000</v>
+        <v>971.46400000000006</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.419300</v>
+        <v>-79.419300000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>9278.747235</v>
+        <v>9278.7472350000007</v>
       </c>
       <c r="AP19" s="1">
-        <v>2.577430</v>
+        <v>2.5774300000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.603000</v>
+        <v>979.60299999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.955300</v>
+        <v>-90.955299999999994</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>9289.778260</v>
+        <v>9289.7782599999991</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.580494</v>
+        <v>2.5804939999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.461000</v>
+        <v>989.46100000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.584000</v>
+        <v>-108.584</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>9300.515654</v>
+        <v>9300.5156540000007</v>
       </c>
       <c r="AZ19" s="1">
-        <v>2.583477</v>
+        <v>2.5834769999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.718000</v>
+        <v>997.71799999999996</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.207000</v>
+        <v>-124.20699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>9311.159800</v>
+        <v>9311.1597999999994</v>
       </c>
       <c r="BE19" s="1">
         <v>2.586433</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.970000</v>
+        <v>1035.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.098000</v>
+        <v>-196.09800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>9321.804937</v>
+        <v>9321.8049370000008</v>
       </c>
       <c r="BJ19" s="1">
-        <v>2.589390</v>
+        <v>2.5893899999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1101.740000</v>
+        <v>1101.74</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.113000</v>
+        <v>-313.113</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>9332.734282</v>
+        <v>9332.7342819999994</v>
       </c>
       <c r="BO19" s="1">
-        <v>2.592426</v>
+        <v>2.5924260000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1208.720000</v>
+        <v>1208.72</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-498.823000</v>
+        <v>-498.82299999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>9343.335547</v>
+        <v>9343.3355470000006</v>
       </c>
       <c r="BT19" s="1">
-        <v>2.595371</v>
+        <v>2.5953710000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1329.400000</v>
+        <v>1329.4</v>
       </c>
       <c r="BV19" s="1">
-        <v>-703.662000</v>
+        <v>-703.66200000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>9354.289454</v>
+        <v>9354.2894539999998</v>
       </c>
       <c r="BY19" s="1">
         <v>2.598414</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1465.780000</v>
+        <v>1465.78</v>
       </c>
       <c r="CA19" s="1">
-        <v>-922.427000</v>
+        <v>-922.42700000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>9366.847134</v>
+        <v>9366.8471339999996</v>
       </c>
       <c r="CD19" s="1">
-        <v>2.601902</v>
+        <v>2.6019019999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1825.890000</v>
+        <v>1825.89</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1441.900000</v>
+        <v>-1441.9</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>9194.424369</v>
+        <v>9194.4243690000003</v>
       </c>
       <c r="B20" s="1">
-        <v>2.554007</v>
+        <v>2.5540069999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>895.910000</v>
+        <v>895.91</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.522000</v>
+        <v>-200.52199999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>9204.545237</v>
+        <v>9204.5452370000003</v>
       </c>
       <c r="G20" s="1">
-        <v>2.556818</v>
+        <v>2.5568179999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>915.535000</v>
+        <v>915.53499999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.773000</v>
+        <v>-168.773</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>9215.048519</v>
+        <v>9215.0485189999999</v>
       </c>
       <c r="L20" s="1">
         <v>2.559736</v>
       </c>
       <c r="M20" s="1">
-        <v>939.153000</v>
+        <v>939.15300000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.710000</v>
+        <v>-119.71</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>9225.969433</v>
+        <v>9225.9694330000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>2.562769</v>
+        <v>2.5627689999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.062000</v>
+        <v>946.06200000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.470000</v>
+        <v>-103.47</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>9236.445931</v>
+        <v>9236.4459310000002</v>
       </c>
       <c r="V20" s="1">
-        <v>2.565679</v>
+        <v>2.5656789999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>952.298000</v>
+        <v>952.298</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.898700</v>
+        <v>-88.898700000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>9246.733948</v>
+        <v>9246.7339479999991</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.568537</v>
+        <v>2.5685370000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.717000</v>
+        <v>959.71699999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.808200</v>
+        <v>-76.808199999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>9257.751122</v>
+        <v>9257.7511219999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>2.571598</v>
+        <v>2.5715979999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.312000</v>
+        <v>964.31200000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.686100</v>
+        <v>-74.686099999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>9268.266272</v>
+        <v>9268.2662720000008</v>
       </c>
       <c r="AK20" s="1">
-        <v>2.574518</v>
+        <v>2.5745179999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.509000</v>
+        <v>971.50900000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.373400</v>
+        <v>-79.373400000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>9279.102865</v>
+        <v>9279.1028650000007</v>
       </c>
       <c r="AP20" s="1">
-        <v>2.577529</v>
+        <v>2.5775290000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.588000</v>
+        <v>979.58799999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.984600</v>
+        <v>-90.9846</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>9290.143848</v>
+        <v>9290.1438479999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.580596</v>
+        <v>2.5805959999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>989.445000</v>
+        <v>989.44500000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.611000</v>
+        <v>-108.611</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>9300.874756</v>
+        <v>9300.8747559999993</v>
       </c>
       <c r="AZ20" s="1">
-        <v>2.583576</v>
+        <v>2.5835759999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.746000</v>
+        <v>997.74599999999998</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.189000</v>
+        <v>-124.18899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>9311.882502</v>
+        <v>9311.8825020000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>2.586634</v>
+        <v>2.5866340000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.079000</v>
+        <v>-196.07900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>9322.559849</v>
+        <v>9322.5598489999993</v>
       </c>
       <c r="BJ20" s="1">
-        <v>2.589600</v>
+        <v>2.5895999999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1101.770000</v>
+        <v>1101.77</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.139000</v>
+        <v>-313.13900000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>9333.130586</v>
+        <v>9333.1305859999993</v>
       </c>
       <c r="BO20" s="1">
         <v>2.592536</v>
       </c>
       <c r="BP20" s="1">
-        <v>1208.740000</v>
+        <v>1208.74</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-498.846000</v>
+        <v>-498.846</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>9343.778204</v>
+        <v>9343.7782040000002</v>
       </c>
       <c r="BT20" s="1">
         <v>2.595494</v>
       </c>
       <c r="BU20" s="1">
-        <v>1329.380000</v>
+        <v>1329.38</v>
       </c>
       <c r="BV20" s="1">
-        <v>-703.613000</v>
+        <v>-703.61300000000006</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>9354.711021</v>
+        <v>9354.7110209999992</v>
       </c>
       <c r="BY20" s="1">
-        <v>2.598531</v>
+        <v>2.5985309999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1465.810000</v>
+        <v>1465.81</v>
       </c>
       <c r="CA20" s="1">
-        <v>-922.463000</v>
+        <v>-922.46299999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>9367.685372</v>
+        <v>9367.6853719999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>2.602135</v>
+        <v>2.6021350000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1826.690000</v>
+        <v>1826.69</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1443.460000</v>
+        <v>-1443.46</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>9194.768096</v>
+        <v>9194.7680959999998</v>
       </c>
       <c r="B21" s="1">
-        <v>2.554102</v>
+        <v>2.5541019999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>895.918000</v>
+        <v>895.91800000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.371000</v>
+        <v>-200.37100000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>9204.872099</v>
+        <v>9204.8720990000002</v>
       </c>
       <c r="G21" s="1">
-        <v>2.556909</v>
+        <v>2.5569090000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>915.593000</v>
+        <v>915.59299999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.086000</v>
+        <v>-169.08600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>9215.392741</v>
+        <v>9215.3927409999997</v>
       </c>
       <c r="L21" s="1">
         <v>2.559831</v>
       </c>
       <c r="M21" s="1">
-        <v>939.182000</v>
+        <v>939.18200000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.812000</v>
+        <v>-119.812</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>9226.382136</v>
+        <v>9226.3821360000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.562884</v>
+        <v>2.5628839999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>946.033000</v>
+        <v>946.03300000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.495000</v>
+        <v>-103.495</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>9236.862570</v>
+        <v>9236.8625699999993</v>
       </c>
       <c r="V21" s="1">
         <v>2.565795</v>
       </c>
       <c r="W21" s="1">
-        <v>952.282000</v>
+        <v>952.28200000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.923900</v>
+        <v>-88.923900000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>9247.023116</v>
+        <v>9247.0231160000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.568618</v>
+        <v>2.5686179999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.789000</v>
+        <v>959.78899999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.811800</v>
+        <v>-76.811800000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>9258.097324</v>
+        <v>9258.0973240000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.571694</v>
+        <v>2.5716939999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.352000</v>
+        <v>964.35199999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.616000</v>
+        <v>-74.616</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>9268.612480</v>
+        <v>9268.6124799999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>2.574615</v>
+        <v>2.5746150000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.523000</v>
+        <v>971.52300000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.395800</v>
+        <v>-79.395799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>9279.465937</v>
+        <v>9279.4659370000008</v>
       </c>
       <c r="AP21" s="1">
-        <v>2.577629</v>
+        <v>2.5776289999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.629000</v>
+        <v>979.62900000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.962700</v>
+        <v>-90.962699999999998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>9290.512339</v>
+        <v>9290.5123390000008</v>
       </c>
       <c r="AU21" s="1">
-        <v>2.580698</v>
+        <v>2.5806979999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.436000</v>
+        <v>989.43600000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.690000</v>
+        <v>-108.69</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>9301.592003</v>
+        <v>9301.5920029999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>2.583776</v>
+        <v>2.5837759999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.700000</v>
+        <v>997.7</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.206000</v>
+        <v>-124.206</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>9312.271680</v>
+        <v>9312.2716799999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>2.586742</v>
+        <v>2.5867420000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.970000</v>
+        <v>1035.97</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.085000</v>
+        <v>-196.08500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>9322.929367</v>
+        <v>9322.9293670000006</v>
       </c>
       <c r="BJ21" s="1">
-        <v>2.589703</v>
+        <v>2.5897030000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.112000</v>
+        <v>-313.11200000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>9333.552185</v>
+        <v>9333.5521850000005</v>
       </c>
       <c r="BO21" s="1">
-        <v>2.592653</v>
+        <v>2.5926529999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1208.730000</v>
+        <v>1208.73</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-498.864000</v>
+        <v>-498.86399999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>9344.167067</v>
+        <v>9344.1670670000003</v>
       </c>
       <c r="BT21" s="1">
         <v>2.595602</v>
       </c>
       <c r="BU21" s="1">
-        <v>1329.400000</v>
+        <v>1329.4</v>
       </c>
       <c r="BV21" s="1">
-        <v>-703.616000</v>
+        <v>-703.61599999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>9355.440638</v>
       </c>
       <c r="BY21" s="1">
-        <v>2.598734</v>
+        <v>2.5987339999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1465.880000</v>
+        <v>1465.88</v>
       </c>
       <c r="CA21" s="1">
-        <v>-922.448000</v>
+        <v>-922.44799999999998</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>9367.925436</v>
+        <v>9367.9254359999995</v>
       </c>
       <c r="CD21" s="1">
-        <v>2.602202</v>
+        <v>2.6022020000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1826.660000</v>
+        <v>1826.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1443.520000</v>
+        <v>-1443.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>9195.110832</v>
+        <v>9195.1108320000003</v>
       </c>
       <c r="B22" s="1">
-        <v>2.554197</v>
+        <v>2.5541969999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>895.987000</v>
+        <v>895.98699999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.324000</v>
+        <v>-200.32400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>9205.289770</v>
+        <v>9205.2897699999994</v>
       </c>
       <c r="G22" s="1">
-        <v>2.557025</v>
+        <v>2.5570249999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>915.316000</v>
+        <v>915.31600000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.033000</v>
+        <v>-169.03299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>9215.806939</v>
+        <v>9215.8069390000001</v>
       </c>
       <c r="L22" s="1">
-        <v>2.559946</v>
+        <v>2.5599460000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.277000</v>
+        <v>939.27700000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.843000</v>
+        <v>-119.843</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>9226.669319</v>
+        <v>9226.6693190000005</v>
       </c>
       <c r="Q22" s="1">
         <v>2.562964</v>
       </c>
       <c r="R22" s="1">
-        <v>946.028000</v>
+        <v>946.02800000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.464000</v>
+        <v>-103.464</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>9237.142314</v>
+        <v>9237.1423140000006</v>
       </c>
       <c r="V22" s="1">
-        <v>2.565873</v>
+        <v>2.5658729999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>952.267000</v>
+        <v>952.26700000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.642800</v>
+        <v>-88.642799999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>9247.372331</v>
+        <v>9247.3723310000005</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.568715</v>
+        <v>2.5687150000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.777000</v>
+        <v>959.77700000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.783700</v>
+        <v>-76.783699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>9258.441022</v>
+        <v>9258.4410220000009</v>
       </c>
       <c r="AF22" s="1">
-        <v>2.571789</v>
+        <v>2.5717889999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.329000</v>
+        <v>964.32899999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.624700</v>
+        <v>-74.624700000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>9268.961662</v>
+        <v>9268.9616619999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>2.574712</v>
+        <v>2.5747119999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.583000</v>
+        <v>971.58299999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.346300</v>
+        <v>-79.346299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>9280.187119</v>
+        <v>9280.1871190000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>2.577830</v>
+        <v>2.5778300000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.621000</v>
+        <v>979.62099999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.960500</v>
+        <v>-90.960499999999996</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>9291.237489</v>
+        <v>9291.2374889999992</v>
       </c>
       <c r="AU22" s="1">
-        <v>2.580899</v>
+        <v>2.5808990000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.427000</v>
+        <v>989.42700000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.706000</v>
+        <v>-108.706</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>9301.952067</v>
+        <v>9301.9520670000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>2.583876</v>
+        <v>2.5838760000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.708000</v>
+        <v>997.70799999999997</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.185000</v>
+        <v>-124.185</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>9312.632422</v>
+        <v>9312.6324220000006</v>
       </c>
       <c r="BE22" s="1">
-        <v>2.586842</v>
+        <v>2.5868419999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.970000</v>
+        <v>1035.97</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.091000</v>
+        <v>-196.09100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>9323.309799</v>
+        <v>9323.3097990000006</v>
       </c>
       <c r="BJ22" s="1">
-        <v>2.589808</v>
+        <v>2.5898080000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1101.790000</v>
+        <v>1101.79</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.130000</v>
+        <v>-313.13</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>9334.253032</v>
+        <v>9334.2530320000005</v>
       </c>
       <c r="BO22" s="1">
         <v>2.592848</v>
       </c>
       <c r="BP22" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-498.890000</v>
+        <v>-498.89</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>9344.915034</v>
+        <v>9344.9150339999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>2.595810</v>
+        <v>2.5958100000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1329.400000</v>
+        <v>1329.4</v>
       </c>
       <c r="BV22" s="1">
-        <v>-703.566000</v>
+        <v>-703.56600000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>9355.561164</v>
+        <v>9355.5611640000006</v>
       </c>
       <c r="BY22" s="1">
         <v>2.598767</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1465.820000</v>
+        <v>1465.82</v>
       </c>
       <c r="CA22" s="1">
-        <v>-922.449000</v>
+        <v>-922.44899999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>9368.443261</v>
+        <v>9368.4432610000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>2.602345</v>
+        <v>2.6023450000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1826.390000</v>
+        <v>1826.39</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1442.190000</v>
+        <v>-1442.19</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>9195.517057</v>
+        <v>9195.5170569999991</v>
       </c>
       <c r="B23" s="1">
-        <v>2.554310</v>
+        <v>2.5543100000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>896.042000</v>
+        <v>896.04200000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.948000</v>
+        <v>-199.94800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>9205.590802</v>
+        <v>9205.5908020000006</v>
       </c>
       <c r="G23" s="1">
-        <v>2.557109</v>
+        <v>2.5571090000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>916.094000</v>
+        <v>916.09400000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.915000</v>
+        <v>-168.91499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>9216.107476</v>
+        <v>9216.1074759999992</v>
       </c>
       <c r="L23" s="1">
-        <v>2.560030</v>
+        <v>2.5600299999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>939.215000</v>
+        <v>939.21500000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.726000</v>
+        <v>-119.726</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>9227.016486</v>
+        <v>9227.0164860000004</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.563060</v>
+        <v>2.5630600000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>946.053000</v>
+        <v>946.053</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.438000</v>
+        <v>-103.438</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>9237.488026</v>
+        <v>9237.4880260000009</v>
       </c>
       <c r="V23" s="1">
-        <v>2.565969</v>
+        <v>2.5659689999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>952.201000</v>
+        <v>952.20100000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.618000</v>
+        <v>-88.617999999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>9247.719530</v>
+        <v>9247.7195300000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>2.568811</v>
+        <v>2.5688110000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.790000</v>
+        <v>959.79</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.849100</v>
+        <v>-76.849100000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>9259.116571</v>
+        <v>9259.1165710000005</v>
       </c>
       <c r="AF23" s="1">
         <v>2.571977</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.342000</v>
+        <v>964.34199999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.643900</v>
+        <v>-74.643900000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>9269.658783</v>
+        <v>9269.6587830000008</v>
       </c>
       <c r="AK23" s="1">
-        <v>2.574905</v>
+        <v>2.5749050000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.583000</v>
+        <v>971.58299999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.374500</v>
+        <v>-79.374499999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>9280.546225</v>
       </c>
       <c r="AP23" s="1">
-        <v>2.577930</v>
+        <v>2.5779299999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.656000</v>
+        <v>979.65599999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.956800</v>
+        <v>-90.956800000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>9291.631312</v>
+        <v>9291.6313119999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>2.581009</v>
+        <v>2.5810089999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.433000</v>
+        <v>989.43299999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.712000</v>
+        <v>-108.712</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>9302.308722</v>
+        <v>9302.3087219999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>2.583975</v>
+        <v>2.5839750000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.723000</v>
+        <v>997.72299999999996</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.169000</v>
+        <v>-124.169</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>9313.287636</v>
+        <v>9313.2876359999991</v>
       </c>
       <c r="BE23" s="1">
         <v>2.587024</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.066000</v>
+        <v>-196.066</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>9324.006679</v>
+        <v>9324.0066790000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>2.590002</v>
+        <v>2.5900020000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1101.800000</v>
+        <v>1101.8</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.126000</v>
+        <v>-313.12599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>9334.367112</v>
+        <v>9334.3671119999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>2.592880</v>
+        <v>2.5928800000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-498.860000</v>
+        <v>-498.86</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>9345.036058</v>
+        <v>9345.0360579999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>2.595843</v>
+        <v>2.5958429999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1329.360000</v>
+        <v>1329.36</v>
       </c>
       <c r="BV23" s="1">
-        <v>-703.576000</v>
+        <v>-703.57600000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>9356.007596</v>
+        <v>9356.0075959999995</v>
       </c>
       <c r="BY23" s="1">
-        <v>2.598891</v>
+        <v>2.5988910000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1465.870000</v>
+        <v>1465.87</v>
       </c>
       <c r="CA23" s="1">
-        <v>-922.445000</v>
+        <v>-922.44500000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>9368.962570</v>
+        <v>9368.9625699999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>2.602490</v>
+        <v>2.60249</v>
       </c>
       <c r="CE23" s="1">
-        <v>1825.200000</v>
+        <v>1825.2</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1443.660000</v>
+        <v>-1443.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>9195.805263</v>
+        <v>9195.8052630000002</v>
       </c>
       <c r="B24" s="1">
-        <v>2.554390</v>
+        <v>2.5543900000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>896.061000</v>
+        <v>896.06100000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.891000</v>
+        <v>-199.89099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>9205.937010</v>
+        <v>9205.9370099999996</v>
       </c>
       <c r="G24" s="1">
-        <v>2.557205</v>
+        <v>2.5572050000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>915.704000</v>
+        <v>915.70399999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.219000</v>
+        <v>-169.21899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>9216.455204</v>
+        <v>9216.4552039999999</v>
       </c>
       <c r="L24" s="1">
-        <v>2.560126</v>
+        <v>2.5601259999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.348000</v>
+        <v>939.34799999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.913000</v>
+        <v>-119.913</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>9227.364677</v>
+        <v>9227.3646769999996</v>
       </c>
       <c r="Q24" s="1">
-        <v>2.563157</v>
+        <v>2.5631569999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>946.091000</v>
+        <v>946.09100000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.468000</v>
+        <v>-103.468</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>9237.830265</v>
+        <v>9237.8302650000005</v>
       </c>
       <c r="V24" s="1">
-        <v>2.566064</v>
+        <v>2.5660639999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>952.632000</v>
+        <v>952.63199999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.402500</v>
+        <v>-88.402500000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>9248.418858</v>
+        <v>9248.4188580000009</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.569005</v>
+        <v>2.5690050000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.722000</v>
+        <v>959.72199999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.838800</v>
+        <v>-76.838800000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>9259.471211</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.572075</v>
+        <v>2.5720749999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.220000</v>
+        <v>964.22</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.562600</v>
+        <v>-74.562600000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>9270.008222</v>
+        <v>9270.0082220000004</v>
       </c>
       <c r="AK24" s="1">
         <v>2.575002</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.590000</v>
+        <v>971.59</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.343900</v>
+        <v>-79.343900000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>9280.906815</v>
+        <v>9280.9068150000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>2.578030</v>
+        <v>2.57803</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.644000</v>
+        <v>979.64400000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.962200</v>
+        <v>-90.962199999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>9291.997856</v>
       </c>
       <c r="AU24" s="1">
-        <v>2.581111</v>
+        <v>2.5811109999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>989.472000</v>
+        <v>989.47199999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.712000</v>
+        <v>-108.712</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>9302.970354</v>
+        <v>9302.9703539999991</v>
       </c>
       <c r="AZ24" s="1">
         <v>2.584158</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.716000</v>
+        <v>997.71600000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.218000</v>
+        <v>-124.218</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>9313.748915</v>
+        <v>9313.7489150000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>2.587152</v>
+        <v>2.5871520000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1036.000000</v>
+        <v>1036</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.061000</v>
+        <v>-196.06100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>9324.459061</v>
+        <v>9324.4590609999996</v>
       </c>
       <c r="BJ24" s="1">
         <v>2.590128</v>
       </c>
       <c r="BK24" s="1">
-        <v>1101.780000</v>
+        <v>1101.78</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.127000</v>
+        <v>-313.12700000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>9334.789208</v>
+        <v>9334.7892080000001</v>
       </c>
       <c r="BO24" s="1">
         <v>2.592997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1208.760000</v>
+        <v>1208.76</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-498.919000</v>
+        <v>-498.91899999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>9345.445259</v>
+        <v>9345.4452590000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>2.595957</v>
+        <v>2.5959569999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1329.370000</v>
+        <v>1329.37</v>
       </c>
       <c r="BV24" s="1">
-        <v>-703.582000</v>
+        <v>-703.58199999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>9356.440106</v>
@@ -6360,180 +6776,180 @@
         <v>2.599011</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1465.820000</v>
+        <v>1465.82</v>
       </c>
       <c r="CA24" s="1">
-        <v>-922.374000</v>
+        <v>-922.37400000000002</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>9369.504698</v>
+        <v>9369.5046980000006</v>
       </c>
       <c r="CD24" s="1">
-        <v>2.602640</v>
+        <v>2.6026400000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.700000</v>
+        <v>1826.7</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1442.910000</v>
+        <v>-1442.91</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>9196.148960</v>
+        <v>9196.1489600000004</v>
       </c>
       <c r="B25" s="1">
-        <v>2.554486</v>
+        <v>2.5544859999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>897.069000</v>
+        <v>897.06899999999996</v>
       </c>
       <c r="D25" s="1">
-        <v>-199.342000</v>
+        <v>-199.34200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>9206.280241</v>
+        <v>9206.2802410000004</v>
       </c>
       <c r="G25" s="1">
-        <v>2.557300</v>
+        <v>2.5573000000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>915.874000</v>
+        <v>915.87400000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.075000</v>
+        <v>-169.07499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>9216.799891</v>
+        <v>9216.7998910000006</v>
       </c>
       <c r="L25" s="1">
         <v>2.560222</v>
       </c>
       <c r="M25" s="1">
-        <v>939.253000</v>
+        <v>939.25300000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.806000</v>
+        <v>-119.806</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>9228.062057</v>
+        <v>9228.0620569999992</v>
       </c>
       <c r="Q25" s="1">
-        <v>2.563351</v>
+        <v>2.5633509999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>946.068000</v>
+        <v>946.06799999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.473000</v>
+        <v>-103.473</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>9238.514248</v>
+        <v>9238.5142479999995</v>
       </c>
       <c r="V25" s="1">
-        <v>2.566254</v>
+        <v>2.5662539999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>952.635000</v>
+        <v>952.63499999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.372500</v>
+        <v>-88.372500000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>9248.766553</v>
+        <v>9248.7665529999995</v>
       </c>
       <c r="AA25" s="1">
         <v>2.569102</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.661000</v>
+        <v>959.66099999999994</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.822800</v>
+        <v>-76.822800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>9259.817419</v>
+        <v>9259.8174190000009</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.572172</v>
+        <v>2.5721720000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.264000</v>
+        <v>964.26400000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.792400</v>
+        <v>-74.792400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>9270.360878</v>
+        <v>9270.3608779999995</v>
       </c>
       <c r="AK25" s="1">
-        <v>2.575100</v>
+        <v>2.5750999999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.587000</v>
+        <v>971.58699999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.356600</v>
+        <v>-79.3566</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>9281.566494</v>
+        <v>9281.5664940000006</v>
       </c>
       <c r="AP25" s="1">
-        <v>2.578213</v>
+        <v>2.5782129999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.649000</v>
+        <v>979.649</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.964200</v>
+        <v>-90.964200000000005</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>9292.687824</v>
+        <v>9292.6878240000005</v>
       </c>
       <c r="AU25" s="1">
         <v>2.581302</v>
       </c>
       <c r="AV25" s="1">
-        <v>989.445000</v>
+        <v>989.44500000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.712000</v>
+        <v>-108.712</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>9303.383554</v>
@@ -6542,362 +6958,363 @@
         <v>2.584273</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.714000</v>
+        <v>997.71400000000006</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.187000</v>
+        <v>-124.187</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>9314.112514</v>
+        <v>9314.1125140000004</v>
       </c>
       <c r="BE25" s="1">
         <v>2.587253</v>
       </c>
       <c r="BF25" s="1">
-        <v>1036.020000</v>
+        <v>1036.02</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.045000</v>
+        <v>-196.04499999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>9324.860325</v>
+        <v>9324.8603249999996</v>
       </c>
       <c r="BJ25" s="1">
         <v>2.590239</v>
       </c>
       <c r="BK25" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.116000</v>
+        <v>-313.11599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>9335.189015</v>
+        <v>9335.1890149999999</v>
       </c>
       <c r="BO25" s="1">
         <v>2.593108</v>
       </c>
       <c r="BP25" s="1">
-        <v>1208.760000</v>
+        <v>1208.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-498.844000</v>
+        <v>-498.84399999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>9345.877770</v>
+        <v>9345.8777699999991</v>
       </c>
       <c r="BT25" s="1">
-        <v>2.596077</v>
+        <v>2.5960770000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1329.500000</v>
+        <v>1329.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-703.573000</v>
+        <v>-703.57299999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>9356.861179</v>
+        <v>9356.8611789999995</v>
       </c>
       <c r="BY25" s="1">
-        <v>2.599128</v>
+        <v>2.5991279999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1465.900000</v>
+        <v>1465.9</v>
       </c>
       <c r="CA25" s="1">
-        <v>-922.441000</v>
+        <v>-922.44100000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>9370.039916</v>
+        <v>9370.0399159999997</v>
       </c>
       <c r="CD25" s="1">
         <v>2.602789</v>
       </c>
       <c r="CE25" s="1">
-        <v>1825.260000</v>
+        <v>1825.26</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1442.560000</v>
+        <v>-1442.56</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>9196.492190</v>
+        <v>9196.4921900000008</v>
       </c>
       <c r="B26" s="1">
-        <v>2.554581</v>
+        <v>2.5545810000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>897.452000</v>
+        <v>897.452</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.414000</v>
+        <v>-199.41399999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>9206.969184</v>
+        <v>9206.9691839999996</v>
       </c>
       <c r="G26" s="1">
-        <v>2.557491</v>
+        <v>2.5574910000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>915.723000</v>
+        <v>915.72299999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.803000</v>
+        <v>-168.803</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>9217.493335</v>
+        <v>9217.4933349999992</v>
       </c>
       <c r="L26" s="1">
-        <v>2.560415</v>
+        <v>2.5604149999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>939.170000</v>
+        <v>939.17</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.662000</v>
+        <v>-119.66200000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>9228.410244</v>
+        <v>9228.4102440000006</v>
       </c>
       <c r="Q26" s="1">
         <v>2.563447</v>
       </c>
       <c r="R26" s="1">
-        <v>946.069000</v>
+        <v>946.06899999999996</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.469000</v>
+        <v>-103.46899999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>9238.857479</v>
+        <v>9238.8574790000002</v>
       </c>
       <c r="V26" s="1">
-        <v>2.566349</v>
+        <v>2.5663490000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>952.641000</v>
+        <v>952.64099999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.423500</v>
+        <v>-88.423500000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>9249.117225</v>
       </c>
       <c r="AA26" s="1">
-        <v>2.569199</v>
+        <v>2.5691989999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.667000</v>
+        <v>959.66700000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.725500</v>
+        <v>-76.725499999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>9260.467177</v>
+        <v>9260.4671770000004</v>
       </c>
       <c r="AF26" s="1">
         <v>2.572352</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.226000</v>
+        <v>964.226</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.720600</v>
+        <v>-74.720600000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>9271.028492</v>
+        <v>9271.0284919999995</v>
       </c>
       <c r="AK26" s="1">
-        <v>2.575286</v>
+        <v>2.5752860000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.565000</v>
+        <v>971.56500000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.350700</v>
+        <v>-79.350700000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>9282.020333</v>
+        <v>9282.0203330000004</v>
       </c>
       <c r="AP26" s="1">
-        <v>2.578339</v>
+        <v>2.5783390000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.644000</v>
+        <v>979.64400000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.962100</v>
+        <v>-90.962100000000007</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>9293.105423</v>
+        <v>9293.1054230000009</v>
       </c>
       <c r="AU26" s="1">
-        <v>2.581418</v>
+        <v>2.5814180000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>989.463000</v>
+        <v>989.46299999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.726000</v>
+        <v>-108.726</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>9303.771393</v>
+        <v>9303.7713930000009</v>
       </c>
       <c r="AZ26" s="1">
         <v>2.584381</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.729000</v>
+        <v>997.72900000000004</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.210000</v>
+        <v>-124.21</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>9314.473113</v>
       </c>
       <c r="BE26" s="1">
-        <v>2.587354</v>
+        <v>2.5873539999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.990000</v>
+        <v>1035.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.062000</v>
+        <v>-196.06200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>9325.238244</v>
+        <v>9325.2382440000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>2.590344</v>
       </c>
       <c r="BK26" s="1">
-        <v>1101.760000</v>
+        <v>1101.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.108000</v>
+        <v>-313.108</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>9335.611612</v>
+        <v>9335.6116120000006</v>
       </c>
       <c r="BO26" s="1">
-        <v>2.593225</v>
+        <v>2.5932249999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1208.710000</v>
+        <v>1208.71</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-498.825000</v>
+        <v>-498.82499999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>9346.315738</v>
+        <v>9346.3157379999993</v>
       </c>
       <c r="BT26" s="1">
-        <v>2.596199</v>
+        <v>2.5961989999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1329.340000</v>
+        <v>1329.34</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.512000</v>
+        <v>-703.51199999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>9357.282780</v>
+        <v>9357.2827799999995</v>
       </c>
       <c r="BY26" s="1">
-        <v>2.599245</v>
+        <v>2.5992449999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1465.870000</v>
+        <v>1465.87</v>
       </c>
       <c r="CA26" s="1">
-        <v>-922.368000</v>
+        <v>-922.36800000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>9370.582505</v>
+        <v>9370.5825050000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>2.602940</v>
+        <v>2.6029399999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.330000</v>
+        <v>1826.33</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1443.830000</v>
+        <v>-1443.83</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>